--- a/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
@@ -415,28 +415,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.804622897166268</v>
+        <v>3.804622897166277</v>
       </c>
       <c r="D2">
-        <v>5.287266921450231</v>
+        <v>5.287266921450172</v>
       </c>
       <c r="E2">
-        <v>18.34577486884884</v>
+        <v>18.34577486884878</v>
       </c>
       <c r="F2">
-        <v>46.77526698018475</v>
+        <v>46.77526698018408</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>33.99409523584534</v>
+        <v>33.99409523584482</v>
       </c>
       <c r="I2">
-        <v>14.44987457827943</v>
+        <v>14.44987457827934</v>
       </c>
       <c r="J2">
-        <v>103.4984160786306</v>
+        <v>103.4984160786304</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.180177657462181</v>
+        <v>3.180177657462178</v>
       </c>
       <c r="D3">
-        <v>4.560145105582693</v>
+        <v>4.560145105582824</v>
       </c>
       <c r="E3">
-        <v>16.74312395973454</v>
+        <v>16.74312395973452</v>
       </c>
       <c r="F3">
-        <v>41.22322886036925</v>
+        <v>41.22322886036936</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>29.88216489129202</v>
+        <v>29.88216489129211</v>
       </c>
       <c r="I3">
         <v>13.09655917480685</v>
       </c>
       <c r="J3">
-        <v>95.23350163342404</v>
+        <v>95.23350163342403</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.821266897643425</v>
+        <v>2.821266897643429</v>
       </c>
       <c r="D4">
-        <v>4.140934922625447</v>
+        <v>4.140934922625713</v>
       </c>
       <c r="E4">
-        <v>15.76178050886459</v>
+        <v>15.76178050886461</v>
       </c>
       <c r="F4">
-        <v>38.0136437443259</v>
+        <v>38.01364374432605</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>27.49382122572547</v>
+        <v>27.49382122572567</v>
       </c>
       <c r="I4">
-        <v>12.28017957656289</v>
+        <v>12.28017957656293</v>
       </c>
       <c r="J4">
-        <v>90.08496806006578</v>
+        <v>90.08496806006598</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.679276651352466</v>
+        <v>2.679276651352464</v>
       </c>
       <c r="D5">
-        <v>3.974794401180991</v>
+        <v>3.974794401180986</v>
       </c>
       <c r="E5">
-        <v>15.35975425550532</v>
+        <v>15.35975425550527</v>
       </c>
       <c r="F5">
-        <v>36.7423891854287</v>
+        <v>36.74238918542842</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>26.54475093136132</v>
+        <v>26.54475093136108</v>
       </c>
       <c r="I5">
-        <v>11.94829067258662</v>
+        <v>11.94829067258661</v>
       </c>
       <c r="J5">
-        <v>87.95771179232088</v>
+        <v>87.95771179232054</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.655913407067578</v>
+        <v>2.655913407067454</v>
       </c>
       <c r="D6">
-        <v>3.94744009016362</v>
+        <v>3.947440090163767</v>
       </c>
       <c r="E6">
-        <v>15.29280507260816</v>
+        <v>15.29280507260813</v>
       </c>
       <c r="F6">
-        <v>36.53321682194701</v>
+        <v>36.53321682194698</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>26.38839491748296</v>
+        <v>26.38839491748294</v>
       </c>
       <c r="I6">
-        <v>11.8931622012377</v>
+        <v>11.89316220123769</v>
       </c>
       <c r="J6">
-        <v>87.6024700270782</v>
+        <v>87.60247002707825</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.819336725946552</v>
+        <v>2.819336725946301</v>
       </c>
       <c r="D7">
-        <v>4.138677641006041</v>
+        <v>4.138677641005851</v>
       </c>
       <c r="E7">
         <v>15.75637026217868</v>
       </c>
       <c r="F7">
-        <v>37.996364641806</v>
+        <v>37.99636464180568</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>27.48093434353915</v>
+        <v>27.48093434353892</v>
       </c>
       <c r="I7">
-        <v>12.27570350199853</v>
+        <v>12.27570350199851</v>
       </c>
       <c r="J7">
-        <v>90.05640895457596</v>
+        <v>90.05640895457582</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.582852932095137</v>
+        <v>3.582852932094744</v>
       </c>
       <c r="D8">
-        <v>5.029334317115435</v>
+        <v>5.029334317115368</v>
       </c>
       <c r="E8">
-        <v>17.79059335980876</v>
+        <v>17.79059335980886</v>
       </c>
       <c r="F8">
-        <v>44.8094944183847</v>
+        <v>44.80949441838494</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32.54050297372468</v>
+        <v>32.54050297372489</v>
       </c>
       <c r="I8">
-        <v>13.97814453254332</v>
+        <v>13.97814453254338</v>
       </c>
       <c r="J8">
-        <v>100.6563680821961</v>
+        <v>100.6563680821962</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.424695971829044</v>
+        <v>5.424695971829046</v>
       </c>
       <c r="D9">
-        <v>7.162282964906458</v>
+        <v>7.162282964906595</v>
       </c>
       <c r="E9">
-        <v>22.02230523471357</v>
+        <v>22.02230523471347</v>
       </c>
       <c r="F9">
-        <v>60.88095596124982</v>
+        <v>60.88095596124934</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>44.37951565426717</v>
+        <v>44.37951565426685</v>
       </c>
       <c r="I9">
-        <v>17.66012450284926</v>
+        <v>17.6601245028492</v>
       </c>
       <c r="J9">
-        <v>121.6734770601703</v>
+        <v>121.6734770601702</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D10">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E10">
         <v>26.1364847667905</v>
       </c>
       <c r="F10">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I10">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J10">
         <v>140.2858250687941</v>
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D11">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E11">
         <v>26.1364847667905</v>
       </c>
       <c r="F11">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I11">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J11">
         <v>140.2858250687941</v>
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D12">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E12">
         <v>26.1364847667905</v>
       </c>
       <c r="F12">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I12">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J12">
         <v>140.2858250687941</v>
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D13">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E13">
         <v>26.1364847667905</v>
       </c>
       <c r="F13">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I13">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J13">
         <v>140.2858250687941</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D14">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E14">
         <v>26.1364847667905</v>
       </c>
       <c r="F14">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I14">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J14">
         <v>140.2858250687941</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D15">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E15">
         <v>26.1364847667905</v>
       </c>
       <c r="F15">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I15">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J15">
         <v>140.2858250687941</v>
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D16">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E16">
         <v>26.1364847667905</v>
       </c>
       <c r="F16">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I16">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J16">
         <v>140.2858250687941</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D17">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E17">
         <v>26.1364847667905</v>
       </c>
       <c r="F17">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I17">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J17">
         <v>140.2858250687941</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D18">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E18">
         <v>26.1364847667905</v>
       </c>
       <c r="F18">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I18">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J18">
         <v>140.2858250687941</v>
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D19">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E19">
         <v>26.1364847667905</v>
       </c>
       <c r="F19">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I19">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J19">
         <v>140.2858250687941</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D20">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E20">
         <v>26.1364847667905</v>
       </c>
       <c r="F20">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I20">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J20">
         <v>140.2858250687941</v>
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D21">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E21">
         <v>26.1364847667905</v>
       </c>
       <c r="F21">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I21">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J21">
         <v>140.2858250687941</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D22">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E22">
         <v>26.1364847667905</v>
       </c>
       <c r="F22">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I22">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J22">
         <v>140.2858250687941</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D23">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E23">
         <v>26.1364847667905</v>
       </c>
       <c r="F23">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I23">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J23">
         <v>140.2858250687941</v>
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D24">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E24">
         <v>26.1364847667905</v>
       </c>
       <c r="F24">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I24">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J24">
         <v>140.2858250687941</v>
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.565864176123585</v>
+        <v>7.565864176123656</v>
       </c>
       <c r="D25">
-        <v>9.614523291672091</v>
+        <v>9.614523291672155</v>
       </c>
       <c r="E25">
         <v>26.1364847667905</v>
       </c>
       <c r="F25">
-        <v>78.80659137058026</v>
+        <v>78.80659137058036</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>57.52201108139966</v>
+        <v>57.52201108139977</v>
       </c>
       <c r="I25">
-        <v>21.46153370106644</v>
+        <v>21.46153370106649</v>
       </c>
       <c r="J25">
         <v>140.2858250687941</v>

--- a/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
@@ -415,28 +415,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.804622897166277</v>
+        <v>3.804622897166268</v>
       </c>
       <c r="D2">
-        <v>5.287266921450172</v>
+        <v>5.287266921450231</v>
       </c>
       <c r="E2">
-        <v>18.34577486884878</v>
+        <v>18.34577486884884</v>
       </c>
       <c r="F2">
-        <v>46.77526698018408</v>
+        <v>46.77526698018475</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>33.99409523584482</v>
+        <v>33.99409523584534</v>
       </c>
       <c r="I2">
-        <v>14.44987457827934</v>
+        <v>14.44987457827943</v>
       </c>
       <c r="J2">
-        <v>103.4984160786304</v>
+        <v>103.4984160786306</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.180177657462178</v>
+        <v>3.180177657462181</v>
       </c>
       <c r="D3">
-        <v>4.560145105582824</v>
+        <v>4.560145105582693</v>
       </c>
       <c r="E3">
-        <v>16.74312395973452</v>
+        <v>16.74312395973454</v>
       </c>
       <c r="F3">
-        <v>41.22322886036936</v>
+        <v>41.22322886036925</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>29.88216489129211</v>
+        <v>29.88216489129202</v>
       </c>
       <c r="I3">
         <v>13.09655917480685</v>
       </c>
       <c r="J3">
-        <v>95.23350163342403</v>
+        <v>95.23350163342404</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.821266897643429</v>
+        <v>2.821266897643425</v>
       </c>
       <c r="D4">
-        <v>4.140934922625713</v>
+        <v>4.140934922625447</v>
       </c>
       <c r="E4">
-        <v>15.76178050886461</v>
+        <v>15.76178050886459</v>
       </c>
       <c r="F4">
-        <v>38.01364374432605</v>
+        <v>38.0136437443259</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>27.49382122572567</v>
+        <v>27.49382122572547</v>
       </c>
       <c r="I4">
-        <v>12.28017957656293</v>
+        <v>12.28017957656289</v>
       </c>
       <c r="J4">
-        <v>90.08496806006598</v>
+        <v>90.08496806006578</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.679276651352464</v>
+        <v>2.679276651352466</v>
       </c>
       <c r="D5">
-        <v>3.974794401180986</v>
+        <v>3.974794401180991</v>
       </c>
       <c r="E5">
-        <v>15.35975425550527</v>
+        <v>15.35975425550532</v>
       </c>
       <c r="F5">
-        <v>36.74238918542842</v>
+        <v>36.7423891854287</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>26.54475093136108</v>
+        <v>26.54475093136132</v>
       </c>
       <c r="I5">
-        <v>11.94829067258661</v>
+        <v>11.94829067258662</v>
       </c>
       <c r="J5">
-        <v>87.95771179232054</v>
+        <v>87.95771179232088</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.655913407067454</v>
+        <v>2.655913407067578</v>
       </c>
       <c r="D6">
-        <v>3.947440090163767</v>
+        <v>3.94744009016362</v>
       </c>
       <c r="E6">
-        <v>15.29280507260813</v>
+        <v>15.29280507260816</v>
       </c>
       <c r="F6">
-        <v>36.53321682194698</v>
+        <v>36.53321682194701</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>26.38839491748294</v>
+        <v>26.38839491748296</v>
       </c>
       <c r="I6">
-        <v>11.89316220123769</v>
+        <v>11.8931622012377</v>
       </c>
       <c r="J6">
-        <v>87.60247002707825</v>
+        <v>87.6024700270782</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.819336725946301</v>
+        <v>2.819336725946552</v>
       </c>
       <c r="D7">
-        <v>4.138677641005851</v>
+        <v>4.138677641006041</v>
       </c>
       <c r="E7">
         <v>15.75637026217868</v>
       </c>
       <c r="F7">
-        <v>37.99636464180568</v>
+        <v>37.996364641806</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>27.48093434353892</v>
+        <v>27.48093434353915</v>
       </c>
       <c r="I7">
-        <v>12.27570350199851</v>
+        <v>12.27570350199853</v>
       </c>
       <c r="J7">
-        <v>90.05640895457582</v>
+        <v>90.05640895457596</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.582852932094744</v>
+        <v>3.582852932095137</v>
       </c>
       <c r="D8">
-        <v>5.029334317115368</v>
+        <v>5.029334317115435</v>
       </c>
       <c r="E8">
-        <v>17.79059335980886</v>
+        <v>17.79059335980876</v>
       </c>
       <c r="F8">
-        <v>44.80949441838494</v>
+        <v>44.8094944183847</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32.54050297372489</v>
+        <v>32.54050297372468</v>
       </c>
       <c r="I8">
-        <v>13.97814453254338</v>
+        <v>13.97814453254332</v>
       </c>
       <c r="J8">
-        <v>100.6563680821962</v>
+        <v>100.6563680821961</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.424695971829046</v>
+        <v>5.424695971829044</v>
       </c>
       <c r="D9">
-        <v>7.162282964906595</v>
+        <v>7.162282964906458</v>
       </c>
       <c r="E9">
-        <v>22.02230523471347</v>
+        <v>22.02230523471357</v>
       </c>
       <c r="F9">
-        <v>60.88095596124934</v>
+        <v>60.88095596124982</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>44.37951565426685</v>
+        <v>44.37951565426717</v>
       </c>
       <c r="I9">
-        <v>17.6601245028492</v>
+        <v>17.66012450284926</v>
       </c>
       <c r="J9">
-        <v>121.6734770601702</v>
+        <v>121.6734770601703</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D10">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E10">
         <v>26.1364847667905</v>
       </c>
       <c r="F10">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I10">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J10">
         <v>140.2858250687941</v>
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D11">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E11">
         <v>26.1364847667905</v>
       </c>
       <c r="F11">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I11">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J11">
         <v>140.2858250687941</v>
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D12">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E12">
         <v>26.1364847667905</v>
       </c>
       <c r="F12">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I12">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J12">
         <v>140.2858250687941</v>
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D13">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E13">
         <v>26.1364847667905</v>
       </c>
       <c r="F13">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I13">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J13">
         <v>140.2858250687941</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D14">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E14">
         <v>26.1364847667905</v>
       </c>
       <c r="F14">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I14">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J14">
         <v>140.2858250687941</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D15">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E15">
         <v>26.1364847667905</v>
       </c>
       <c r="F15">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I15">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J15">
         <v>140.2858250687941</v>
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D16">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E16">
         <v>26.1364847667905</v>
       </c>
       <c r="F16">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I16">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J16">
         <v>140.2858250687941</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D17">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E17">
         <v>26.1364847667905</v>
       </c>
       <c r="F17">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I17">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J17">
         <v>140.2858250687941</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D18">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E18">
         <v>26.1364847667905</v>
       </c>
       <c r="F18">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I18">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J18">
         <v>140.2858250687941</v>
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D19">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E19">
         <v>26.1364847667905</v>
       </c>
       <c r="F19">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I19">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J19">
         <v>140.2858250687941</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D20">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E20">
         <v>26.1364847667905</v>
       </c>
       <c r="F20">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I20">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J20">
         <v>140.2858250687941</v>
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D21">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E21">
         <v>26.1364847667905</v>
       </c>
       <c r="F21">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I21">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J21">
         <v>140.2858250687941</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D22">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E22">
         <v>26.1364847667905</v>
       </c>
       <c r="F22">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I22">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J22">
         <v>140.2858250687941</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D23">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E23">
         <v>26.1364847667905</v>
       </c>
       <c r="F23">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I23">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J23">
         <v>140.2858250687941</v>
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D24">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E24">
         <v>26.1364847667905</v>
       </c>
       <c r="F24">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I24">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J24">
         <v>140.2858250687941</v>
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.565864176123656</v>
+        <v>7.565864176123585</v>
       </c>
       <c r="D25">
-        <v>9.614523291672155</v>
+        <v>9.614523291672091</v>
       </c>
       <c r="E25">
         <v>26.1364847667905</v>
       </c>
       <c r="F25">
-        <v>78.80659137058036</v>
+        <v>78.80659137058026</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>57.52201108139977</v>
+        <v>57.52201108139966</v>
       </c>
       <c r="I25">
-        <v>21.46153370106649</v>
+        <v>21.46153370106644</v>
       </c>
       <c r="J25">
         <v>140.2858250687941</v>

--- a/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.804622897166268</v>
+        <v>3.632984731197432</v>
       </c>
       <c r="D2">
-        <v>5.287266921450231</v>
+        <v>5.0777013656809</v>
       </c>
       <c r="E2">
-        <v>18.34577486884884</v>
+        <v>18.27992113948305</v>
       </c>
       <c r="F2">
-        <v>46.77526698018475</v>
+        <v>46.19145507217883</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.86107002020155</v>
       </c>
       <c r="H2">
-        <v>33.99409523584534</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>14.44987457827943</v>
+        <v>33.5272134466266</v>
       </c>
       <c r="J2">
-        <v>103.4984160786306</v>
+        <v>14.3649533218758</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>103.1720291220037</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.180177657462181</v>
+        <v>3.01229328349516</v>
       </c>
       <c r="D3">
-        <v>4.560145105582693</v>
+        <v>4.354566112995992</v>
       </c>
       <c r="E3">
-        <v>16.74312395973454</v>
+        <v>16.68807140590505</v>
       </c>
       <c r="F3">
-        <v>41.22322886036925</v>
+        <v>40.74208171491168</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.90160317432601</v>
       </c>
       <c r="H3">
-        <v>29.88216489129202</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>13.09655917480685</v>
+        <v>29.48476052424906</v>
       </c>
       <c r="J3">
-        <v>95.23350163342404</v>
+        <v>13.0226691082731</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>94.94967431710506</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.821266897643425</v>
+        <v>2.655180923566181</v>
       </c>
       <c r="D4">
-        <v>4.140934922625447</v>
+        <v>3.93721003817387</v>
       </c>
       <c r="E4">
-        <v>15.76178050886459</v>
+        <v>15.71241355810432</v>
       </c>
       <c r="F4">
-        <v>38.0136437443259</v>
+        <v>37.59713757406379</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.925217674912471</v>
       </c>
       <c r="H4">
-        <v>27.49382122572547</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>12.28017957656289</v>
+        <v>27.13974891765303</v>
       </c>
       <c r="J4">
-        <v>90.08496806006578</v>
+        <v>12.2120535141586</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>89.82416111365018</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.679276651352466</v>
+        <v>2.513853267333704</v>
       </c>
       <c r="D5">
-        <v>3.974794401180991</v>
+        <v>3.771734172592579</v>
       </c>
       <c r="E5">
-        <v>15.35975425550532</v>
+        <v>15.31255336388505</v>
       </c>
       <c r="F5">
-        <v>36.7423891854287</v>
+        <v>36.353230170528</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.934630938797037</v>
       </c>
       <c r="H5">
-        <v>26.54475093136132</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.94829067258662</v>
+        <v>26.20894718304624</v>
       </c>
       <c r="J5">
-        <v>87.95771179232088</v>
+        <v>11.88235081934453</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>87.70581102568661</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.655913407067578</v>
+        <v>2.490597092560962</v>
       </c>
       <c r="D6">
-        <v>3.94744009016362</v>
+        <v>3.744485973048924</v>
       </c>
       <c r="E6">
-        <v>15.29280507260816</v>
+        <v>15.24595656835153</v>
       </c>
       <c r="F6">
-        <v>36.53321682194701</v>
+        <v>36.14867370165243</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.936183895152077</v>
       </c>
       <c r="H6">
-        <v>26.38839491748296</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.8931622012377</v>
+        <v>26.0556720915573</v>
       </c>
       <c r="J6">
-        <v>87.6024700270782</v>
+        <v>11.82757745279444</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>87.35202597804714</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.819336725946552</v>
+        <v>2.653259912140476</v>
       </c>
       <c r="D7">
-        <v>4.138677641006041</v>
+        <v>3.934962030040107</v>
       </c>
       <c r="E7">
-        <v>15.75637026217868</v>
+        <v>15.70703304804187</v>
       </c>
       <c r="F7">
-        <v>37.996364641806</v>
+        <v>37.58022255415849</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.925345355347372</v>
       </c>
       <c r="H7">
-        <v>27.48093434353915</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>12.27570350199853</v>
+        <v>27.12710545038093</v>
       </c>
       <c r="J7">
-        <v>90.05640895457596</v>
+        <v>12.20760749175937</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>89.79572373399863</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.582852932095137</v>
+        <v>3.412657284844804</v>
       </c>
       <c r="D8">
-        <v>5.029334317115435</v>
+        <v>4.821312032142707</v>
       </c>
       <c r="E8">
-        <v>17.79059335980876</v>
+        <v>17.72872835534935</v>
       </c>
       <c r="F8">
-        <v>44.8094944183847</v>
+        <v>44.26118584586493</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.875389878522692</v>
       </c>
       <c r="H8">
-        <v>32.54050297372468</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>13.97814453254332</v>
+        <v>32.09775573275996</v>
       </c>
       <c r="J8">
-        <v>100.6563680821961</v>
+        <v>13.89730746168793</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>100.3455400415113</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.424695971829044</v>
+        <v>5.236806427795918</v>
       </c>
       <c r="D9">
-        <v>7.162282964906458</v>
+        <v>6.93503054879257</v>
       </c>
       <c r="E9">
-        <v>22.02230523471357</v>
+        <v>21.91934958553105</v>
       </c>
       <c r="F9">
-        <v>60.88095596124982</v>
+        <v>60.03386808155889</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.758705370123578</v>
       </c>
       <c r="H9">
-        <v>44.37951565426717</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.66012450284926</v>
+        <v>43.72975460503292</v>
       </c>
       <c r="J9">
-        <v>121.6734770601703</v>
+        <v>17.53687691829412</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>121.2084840316403</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.565864176123585</v>
+        <v>7.320032761412031</v>
       </c>
       <c r="D10">
-        <v>9.614523291672091</v>
+        <v>9.323406677443216</v>
       </c>
       <c r="E10">
-        <v>26.1364847667905</v>
+        <v>25.93110945688395</v>
       </c>
       <c r="F10">
-        <v>78.80659137058026</v>
+        <v>77.3901148639624</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.629621199164634</v>
       </c>
       <c r="H10">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>21.46153370106644</v>
+        <v>56.46309978301574</v>
       </c>
       <c r="J10">
-        <v>140.2858250687941</v>
+        <v>21.23176696130993</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>139.4647805374731</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D11">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E11">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F11">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H11">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J11">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D12">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E12">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F12">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H12">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J12">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D13">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E13">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F13">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H13">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J13">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D14">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E14">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F14">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H14">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J14">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D15">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E15">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F15">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H15">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J15">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D16">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E16">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F16">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H16">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J16">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D17">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E17">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F17">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H17">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J17">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D18">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E18">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F18">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H18">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J18">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D19">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E19">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F19">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H19">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J19">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D20">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E20">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F20">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H20">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J20">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D21">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E21">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F21">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H21">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J21">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D22">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E22">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F22">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H22">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J22">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D23">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E23">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F23">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H23">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J23">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D24">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E24">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F24">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H24">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J24">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.565864176123585</v>
+        <v>9.463485686712101</v>
       </c>
       <c r="D25">
-        <v>9.614523291672091</v>
+        <v>11.7438505831942</v>
       </c>
       <c r="E25">
-        <v>26.1364847667905</v>
+        <v>29.51402979552363</v>
       </c>
       <c r="F25">
-        <v>78.80659137058026</v>
+        <v>94.54317806725537</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.500499281885507</v>
       </c>
       <c r="H25">
-        <v>57.52201108139966</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>21.46153370106644</v>
+        <v>69.02075279035648</v>
       </c>
       <c r="J25">
-        <v>140.2858250687941</v>
+        <v>24.74559600663194</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>153.6233868143741</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.632984731197432</v>
+        <v>6.524016018203911</v>
       </c>
       <c r="D2">
-        <v>5.0777013656809</v>
+        <v>9.722684926672059</v>
       </c>
       <c r="E2">
-        <v>18.27992113948305</v>
+        <v>5.465146847190224</v>
       </c>
       <c r="F2">
-        <v>46.19145507217883</v>
+        <v>65.72940186345568</v>
       </c>
       <c r="G2">
-        <v>1.86107002020155</v>
+        <v>1.982790944927907</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.5272134466266</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>14.3649533218758</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>103.1720291220037</v>
+        <v>59.66516021700735</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4.966883875751278</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>39.5917603770282</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.01229328349516</v>
+        <v>6.43287001587522</v>
       </c>
       <c r="D3">
-        <v>4.354566112995992</v>
+        <v>9.265972925413113</v>
       </c>
       <c r="E3">
-        <v>16.68807140590505</v>
+        <v>5.591898593324678</v>
       </c>
       <c r="F3">
-        <v>40.74208171491168</v>
+        <v>60.94732989830486</v>
       </c>
       <c r="G3">
-        <v>1.90160317432601</v>
+        <v>2.021776366355332</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.48476052424906</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>13.0226691082731</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>94.94967431710506</v>
+        <v>54.86568492616721</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4.915069114967459</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>36.37149784272255</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.655180923566181</v>
+        <v>6.392796861652315</v>
       </c>
       <c r="D4">
-        <v>3.93721003817387</v>
+        <v>9.034096598110082</v>
       </c>
       <c r="E4">
-        <v>15.71241355810432</v>
+        <v>5.668534120329825</v>
       </c>
       <c r="F4">
-        <v>37.59713757406379</v>
+        <v>58.17279272693489</v>
       </c>
       <c r="G4">
-        <v>1.925217674912471</v>
+        <v>2.044913845160963</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.13974891765303</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.2120535141586</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>89.82416111365018</v>
+        <v>51.88016697461829</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.885049198814441</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>34.52905305173844</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.513853267333704</v>
+        <v>6.379860253097721</v>
       </c>
       <c r="D5">
-        <v>3.771734172592579</v>
+        <v>8.949996909138802</v>
       </c>
       <c r="E5">
-        <v>15.31255336388505</v>
+        <v>5.699629499727997</v>
       </c>
       <c r="F5">
-        <v>36.353230170528</v>
+        <v>57.07537855983971</v>
       </c>
       <c r="G5">
-        <v>1.934630938797037</v>
+        <v>2.054218147460317</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.20894718304624</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>11.88235081934453</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>87.70581102568661</v>
+        <v>50.6489715206443</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.873175298126331</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33.82855357447361</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.490597092560962</v>
+        <v>6.377902111885119</v>
       </c>
       <c r="D6">
-        <v>3.744485973048924</v>
+        <v>8.936613916346065</v>
       </c>
       <c r="E6">
-        <v>15.24595656835153</v>
+        <v>5.704788837557333</v>
       </c>
       <c r="F6">
-        <v>36.14867370165243</v>
+        <v>56.89499172463653</v>
       </c>
       <c r="G6">
-        <v>1.936183895152077</v>
+        <v>2.055757456168322</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.0556720915573</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>11.82757745279444</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>87.35202597804714</v>
+        <v>50.44353697078918</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.871223164172118</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>33.71206924156558</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.653259912140476</v>
+        <v>6.392609347035958</v>
       </c>
       <c r="D7">
-        <v>3.934962030040107</v>
+        <v>9.032922442482874</v>
       </c>
       <c r="E7">
-        <v>15.70703304804187</v>
+        <v>5.668953837923081</v>
       </c>
       <c r="F7">
-        <v>37.58022255415849</v>
+        <v>58.15786599498863</v>
       </c>
       <c r="G7">
-        <v>1.925345355347372</v>
+        <v>2.045039743965439</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.12710545038093</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>12.20760749175937</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>89.79572373399863</v>
+        <v>51.86362702399225</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.884887709834343</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>34.5196159220317</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.412657284844804</v>
+        <v>6.488876793761351</v>
       </c>
       <c r="D8">
-        <v>4.821312032142707</v>
+        <v>9.553897902215656</v>
       </c>
       <c r="E8">
-        <v>17.72872835534935</v>
+        <v>5.509211881665318</v>
       </c>
       <c r="F8">
-        <v>44.26118584586493</v>
+        <v>64.04158003227226</v>
       </c>
       <c r="G8">
-        <v>1.875389878522692</v>
+        <v>1.99645298615223</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.09775573275996</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>13.89730746168793</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>100.3455400415113</v>
+        <v>58.01486880159234</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4.948580704205958</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>38.48423522087023</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.236806427795918</v>
+        <v>6.843445904873417</v>
       </c>
       <c r="D9">
-        <v>6.93503054879257</v>
+        <v>11.07944914761905</v>
       </c>
       <c r="E9">
-        <v>21.91934958553105</v>
+        <v>5.175609819166015</v>
       </c>
       <c r="F9">
-        <v>60.03386808155889</v>
+        <v>77.98715511656769</v>
       </c>
       <c r="G9">
-        <v>1.758705370123578</v>
+        <v>1.889465451056689</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>43.72975460503292</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>17.53687691829412</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>121.2084840316403</v>
+        <v>70.11731152050177</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.094280959782744</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>46.61461719816084</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.320032761412031</v>
+        <v>7.307406583785986</v>
       </c>
       <c r="D10">
-        <v>9.323406677443216</v>
+        <v>13.08988917049203</v>
       </c>
       <c r="E10">
-        <v>25.93110945688395</v>
+        <v>4.890905146941157</v>
       </c>
       <c r="F10">
-        <v>77.3901148639624</v>
+        <v>91.11593295778052</v>
       </c>
       <c r="G10">
-        <v>1.629621199164634</v>
+        <v>1.789008352437863</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>56.46309978301574</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.23176696130993</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>139.4647805374731</v>
+        <v>79.99078977009201</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.232513413643001</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>53.26673657060695</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.463485686712101</v>
+        <v>7.628316590162239</v>
       </c>
       <c r="D11">
-        <v>11.7438505831942</v>
+        <v>14.39459851161161</v>
       </c>
       <c r="E11">
-        <v>29.51402979552363</v>
+        <v>4.736741239461953</v>
       </c>
       <c r="F11">
-        <v>94.54317806725537</v>
+        <v>98.84316774423347</v>
       </c>
       <c r="G11">
-        <v>1.500499281885507</v>
+        <v>1.728620355305825</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>153.6233868143741</v>
+        <v>85.34373302621225</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.315105438392817</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>56.88269374998076</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.463485686712101</v>
+        <v>7.784680503549827</v>
       </c>
       <c r="D12">
-        <v>11.7438505831942</v>
+        <v>15.0015402518779</v>
       </c>
       <c r="E12">
-        <v>29.51402979552363</v>
+        <v>4.670587443893331</v>
       </c>
       <c r="F12">
-        <v>94.54317806725537</v>
+        <v>102.3717126075805</v>
       </c>
       <c r="G12">
-        <v>1.500499281885507</v>
+        <v>1.700679976419503</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>153.6233868143741</v>
+        <v>87.68754208952195</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.353173499421761</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>58.46835347588426</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.463485686712101</v>
+        <v>7.748691229752036</v>
       </c>
       <c r="D13">
-        <v>11.7438505831942</v>
+        <v>14.86316665239831</v>
       </c>
       <c r="E13">
-        <v>29.51402979552363</v>
+        <v>4.685340538115418</v>
       </c>
       <c r="F13">
-        <v>94.54317806725537</v>
+        <v>101.5707871665798</v>
       </c>
       <c r="G13">
-        <v>1.500499281885507</v>
+        <v>1.707043046827488</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>153.6233868143741</v>
+        <v>87.160855023859</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.344509902430083</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>58.11190039720129</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.463485686712101</v>
+        <v>7.640237437548297</v>
       </c>
       <c r="D14">
-        <v>11.7438505831942</v>
+        <v>14.44142501821542</v>
       </c>
       <c r="E14">
-        <v>29.51402979552363</v>
+        <v>4.731506266063413</v>
       </c>
       <c r="F14">
-        <v>94.54317806725537</v>
+        <v>99.11684187320392</v>
       </c>
       <c r="G14">
-        <v>1.500499281885507</v>
+        <v>1.726461789251656</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>153.6233868143741</v>
+        <v>85.52770683126842</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.318049127439303</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>57.00710307495709</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.463485686712101</v>
+        <v>7.579483653355215</v>
       </c>
       <c r="D15">
-        <v>11.7438505831942</v>
+        <v>14.20171975010695</v>
       </c>
       <c r="E15">
-        <v>29.51402979552363</v>
+        <v>4.758529009675668</v>
       </c>
       <c r="F15">
-        <v>94.54317806725537</v>
+        <v>97.71331238919136</v>
       </c>
       <c r="G15">
-        <v>1.500499281885507</v>
+        <v>1.737517110978186</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>153.6233868143741</v>
+        <v>84.58024405617589</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.302967100719004</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>56.36649434779187</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.463485686712101</v>
+        <v>7.289679845817925</v>
       </c>
       <c r="D16">
-        <v>11.7438505831942</v>
+        <v>13.01482559491568</v>
       </c>
       <c r="E16">
-        <v>29.51402979552363</v>
+        <v>4.900244598258299</v>
       </c>
       <c r="F16">
-        <v>94.54317806725537</v>
+        <v>90.6651007607211</v>
       </c>
       <c r="G16">
-        <v>1.500499281885507</v>
+        <v>1.792499728236729</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>153.6233868143741</v>
+        <v>79.66869263464744</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.227723370882593</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>53.0493870992722</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.463485686712101</v>
+        <v>7.146803259471528</v>
       </c>
       <c r="D17">
-        <v>11.7438505831942</v>
+        <v>12.39482444435348</v>
       </c>
       <c r="E17">
-        <v>29.51402979552363</v>
+        <v>4.979267338442949</v>
       </c>
       <c r="F17">
-        <v>94.54317806725537</v>
+        <v>86.91331894027053</v>
       </c>
       <c r="G17">
-        <v>1.500499281885507</v>
+        <v>1.821428892609813</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>153.6233868143741</v>
+        <v>76.94393454136681</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.187976589647623</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>51.21171142857457</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.463485686712101</v>
+        <v>7.073429968620927</v>
       </c>
       <c r="D18">
-        <v>11.7438505831942</v>
+        <v>12.06438198447498</v>
       </c>
       <c r="E18">
-        <v>29.51402979552363</v>
+        <v>5.022742225140706</v>
       </c>
       <c r="F18">
-        <v>94.54317806725537</v>
+        <v>84.89233413406079</v>
       </c>
       <c r="G18">
-        <v>1.500499281885507</v>
+        <v>1.83692409687992</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>153.6233868143741</v>
+        <v>75.44226540865834</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.16665211790693</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>50.19964954450592</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.463485686712101</v>
+        <v>7.049858186202762</v>
       </c>
       <c r="D19">
-        <v>11.7438505831942</v>
+        <v>11.95619160782406</v>
       </c>
       <c r="E19">
-        <v>29.51402979552363</v>
+        <v>5.037180707700847</v>
       </c>
       <c r="F19">
-        <v>94.54317806725537</v>
+        <v>84.22724156015437</v>
       </c>
       <c r="G19">
-        <v>1.500499281885507</v>
+        <v>1.842010815197608</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>153.6233868143741</v>
+        <v>74.94268365552786</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.159647877917579</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>49.86306084736308</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.463485686712101</v>
+        <v>7.161038189854272</v>
       </c>
       <c r="D20">
-        <v>11.7438505831942</v>
+        <v>12.45790574090138</v>
       </c>
       <c r="E20">
-        <v>29.51402979552363</v>
+        <v>4.971074954338624</v>
       </c>
       <c r="F20">
-        <v>94.54317806725537</v>
+        <v>87.29738917857074</v>
       </c>
       <c r="G20">
-        <v>1.500499281885507</v>
+        <v>1.818477405778373</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>153.6233868143741</v>
+        <v>77.22657677682916</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.192035991008701</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>51.40225626077461</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.463485686712101</v>
+        <v>7.670807484148096</v>
       </c>
       <c r="D21">
-        <v>11.7438505831942</v>
+        <v>14.56106569893552</v>
       </c>
       <c r="E21">
-        <v>29.51402979552363</v>
+        <v>4.718229052941025</v>
       </c>
       <c r="F21">
-        <v>94.54317806725537</v>
+        <v>99.81496761266206</v>
       </c>
       <c r="G21">
-        <v>1.500499281885507</v>
+        <v>1.720949022495127</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>153.6233868143741</v>
+        <v>85.99533168638595</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.325564753067455</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>57.32336837874954</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.463485686712101</v>
+        <v>8.288464189216498</v>
       </c>
       <c r="D22">
-        <v>11.7438505831942</v>
+        <v>16.87774608296351</v>
       </c>
       <c r="E22">
-        <v>29.51402979552363</v>
+        <v>4.49174899227904</v>
       </c>
       <c r="F22">
-        <v>94.54317806725537</v>
+        <v>113.03427218402</v>
       </c>
       <c r="G22">
-        <v>1.500499281885507</v>
+        <v>1.614730476539779</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>153.6233868143741</v>
+        <v>94.41362470076257</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.470237722250746</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>63.0274947707186</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.463485686712101</v>
+        <v>7.902288191855339</v>
       </c>
       <c r="D23">
-        <v>11.7438505831942</v>
+        <v>15.44890581270336</v>
       </c>
       <c r="E23">
-        <v>29.51402979552363</v>
+        <v>4.624273341180425</v>
       </c>
       <c r="F23">
-        <v>94.54317806725537</v>
+        <v>104.9471598546871</v>
       </c>
       <c r="G23">
-        <v>1.500499281885507</v>
+        <v>1.680133244350345</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>153.6233868143741</v>
+        <v>89.36037643295084</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.381133854779639</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>59.60102151890288</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.463485686712101</v>
+        <v>7.154576116835509</v>
       </c>
       <c r="D24">
-        <v>11.7438505831942</v>
+        <v>12.42930854660705</v>
       </c>
       <c r="E24">
-        <v>29.51402979552363</v>
+        <v>4.97478462496665</v>
       </c>
       <c r="F24">
-        <v>94.54317806725537</v>
+        <v>87.12334297115601</v>
       </c>
       <c r="G24">
-        <v>1.500499281885507</v>
+        <v>1.819815182358643</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>153.6233868143741</v>
+        <v>77.09860080940545</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.190196153144723</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>51.31597832719736</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.463485686712101</v>
+        <v>6.722661640120174</v>
       </c>
       <c r="D25">
-        <v>11.7438505831942</v>
+        <v>10.59141745407231</v>
       </c>
       <c r="E25">
-        <v>29.51402979552363</v>
+        <v>5.269980022772224</v>
       </c>
       <c r="F25">
-        <v>94.54317806725537</v>
+        <v>73.85827883547516</v>
       </c>
       <c r="G25">
-        <v>1.500499281885507</v>
+        <v>1.920649455182621</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>69.02075279035648</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>24.74559600663194</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>153.6233868143741</v>
+        <v>66.77492811763335</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.051418052803975</v>
       </c>
       <c r="M25">
+        <v>44.36704696287678</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
@@ -420,1128 +420,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>6.524016018203911</v>
+        <v>1.604881059322816</v>
       </c>
       <c r="D2">
-        <v>9.722684926672059</v>
+        <v>2.23185109210285</v>
       </c>
       <c r="E2">
-        <v>5.465146847190224</v>
+        <v>31.24217347962265</v>
       </c>
       <c r="F2">
-        <v>65.72940186345568</v>
+        <v>33.93664512644636</v>
       </c>
       <c r="G2">
-        <v>1.982790944927907</v>
+        <v>1.978787400582406</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>25.04517727779046</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>59.66516021700735</v>
-      </c>
       <c r="L2">
-        <v>4.966883875751278</v>
-      </c>
-      <c r="M2">
-        <v>39.5917603770282</v>
-      </c>
-      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>27.02694596348244</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>6.43287001587522</v>
+        <v>1.550045393349223</v>
       </c>
       <c r="D3">
-        <v>9.265972925413113</v>
+        <v>2.124375878529157</v>
       </c>
       <c r="E3">
-        <v>5.591898593324678</v>
+        <v>28.87033717357183</v>
       </c>
       <c r="F3">
-        <v>60.94732989830486</v>
+        <v>31.47630387485409</v>
       </c>
       <c r="G3">
-        <v>2.021776366355332</v>
+        <v>1.989372520803173</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>23.21037613844267</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>54.86568492616721</v>
-      </c>
       <c r="L3">
-        <v>4.915069114967459</v>
-      </c>
-      <c r="M3">
-        <v>36.37149784272255</v>
-      </c>
-      <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>25.04460434424394</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>6.392796861652315</v>
+        <v>1.516576709119612</v>
       </c>
       <c r="D4">
-        <v>9.034096598110082</v>
+        <v>2.05800331295133</v>
       </c>
       <c r="E4">
-        <v>5.668534120329825</v>
+        <v>27.35744818873204</v>
       </c>
       <c r="F4">
-        <v>58.17279272693489</v>
+        <v>29.89974647350228</v>
       </c>
       <c r="G4">
-        <v>2.044913845160963</v>
+        <v>1.99599436583687</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>22.03269537528136</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>51.88016697461829</v>
-      </c>
       <c r="L4">
-        <v>4.885049198814441</v>
-      </c>
-      <c r="M4">
-        <v>34.52905305173844</v>
-      </c>
-      <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>23.77294354068077</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>6.379860253097721</v>
+        <v>1.502991807846932</v>
       </c>
       <c r="D5">
-        <v>8.949996909138802</v>
+        <v>2.03082384564613</v>
       </c>
       <c r="E5">
-        <v>5.699629499727997</v>
+        <v>26.72604132247013</v>
       </c>
       <c r="F5">
-        <v>57.07537855983971</v>
+        <v>29.24045126131536</v>
       </c>
       <c r="G5">
-        <v>2.054218147460317</v>
+        <v>1.998727053925479</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.53966553640621</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>50.6489715206443</v>
-      </c>
       <c r="L5">
-        <v>4.873175298126331</v>
-      </c>
-      <c r="M5">
-        <v>33.82855357447361</v>
-      </c>
-      <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>23.24074678007133</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>6.377902111885119</v>
+        <v>1.500739455072916</v>
       </c>
       <c r="D6">
-        <v>8.936613916346065</v>
+        <v>2.026301824095471</v>
       </c>
       <c r="E6">
-        <v>5.704788837557333</v>
+        <v>26.62027903914442</v>
       </c>
       <c r="F6">
-        <v>56.89499172463653</v>
+        <v>29.12995265558502</v>
       </c>
       <c r="G6">
-        <v>2.055757456168322</v>
+        <v>1.999182975905622</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.45699919430961</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>50.44353697078918</v>
-      </c>
       <c r="L6">
-        <v>4.871223164172118</v>
-      </c>
-      <c r="M6">
-        <v>33.71206924156558</v>
-      </c>
-      <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>23.15152393411624</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>6.392609347035958</v>
+        <v>1.51639327361536</v>
       </c>
       <c r="D7">
-        <v>9.032922442482874</v>
+        <v>2.05763733827507</v>
       </c>
       <c r="E7">
-        <v>5.668953837923081</v>
+        <v>27.34899394515729</v>
       </c>
       <c r="F7">
-        <v>58.15786599498863</v>
+        <v>29.89092345042308</v>
       </c>
       <c r="G7">
-        <v>2.045039743965439</v>
+        <v>1.996031076940518</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>22.02609962746219</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>51.86362702399225</v>
-      </c>
       <c r="L7">
-        <v>4.884887709834343</v>
-      </c>
-      <c r="M7">
-        <v>34.5196159220317</v>
-      </c>
-      <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>23.76582311124392</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>6.488876793761351</v>
+        <v>1.585933098646238</v>
       </c>
       <c r="D8">
-        <v>9.553897902215656</v>
+        <v>2.194848933027356</v>
       </c>
       <c r="E8">
-        <v>5.509211881665318</v>
+        <v>30.43568125447067</v>
       </c>
       <c r="F8">
-        <v>64.04158003227226</v>
+        <v>33.10181438016058</v>
       </c>
       <c r="G8">
-        <v>1.99645298615223</v>
+        <v>1.982413886964433</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>24.42297292766788</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>58.01486880159234</v>
-      </c>
       <c r="L8">
-        <v>4.948580704205958</v>
-      </c>
-      <c r="M8">
-        <v>38.48423522087023</v>
-      </c>
-      <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>26.35456083120607</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>6.843445904873417</v>
+        <v>1.723946472477121</v>
       </c>
       <c r="D9">
-        <v>11.07944914761905</v>
+        <v>2.462965688450808</v>
       </c>
       <c r="E9">
-        <v>5.175609819166015</v>
+        <v>36.07429109778039</v>
       </c>
       <c r="F9">
-        <v>77.98715511656769</v>
+        <v>38.89141066579477</v>
       </c>
       <c r="G9">
-        <v>1.889465451056689</v>
+        <v>1.956507627152063</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>28.73192374578113</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>70.11731152050177</v>
-      </c>
       <c r="L9">
-        <v>5.094280959782744</v>
-      </c>
-      <c r="M9">
-        <v>46.61461719816084</v>
-      </c>
-      <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>31.01399700260223</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>7.307406583785986</v>
+        <v>1.826812495605667</v>
       </c>
       <c r="D10">
-        <v>13.08988917049203</v>
+        <v>2.663102629872464</v>
       </c>
       <c r="E10">
-        <v>4.890905146941157</v>
+        <v>40.02110751215042</v>
       </c>
       <c r="F10">
-        <v>91.11593295778052</v>
+        <v>42.86425199072825</v>
       </c>
       <c r="G10">
-        <v>1.789008352437863</v>
+        <v>1.93767621650585</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>31.68268931691463</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>79.99078977009201</v>
-      </c>
       <c r="L10">
-        <v>5.232513413643001</v>
-      </c>
-      <c r="M10">
-        <v>53.26673657060695</v>
-      </c>
-      <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>34.20870356236935</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>7.628316590162239</v>
+        <v>1.874167688813445</v>
       </c>
       <c r="D11">
-        <v>14.39459851161161</v>
+        <v>2.755962690386897</v>
       </c>
       <c r="E11">
-        <v>4.736741239461953</v>
+        <v>41.78997489797433</v>
       </c>
       <c r="F11">
-        <v>98.84316774423347</v>
+        <v>44.61882639419563</v>
       </c>
       <c r="G11">
-        <v>1.728620355305825</v>
+        <v>1.92907566713644</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>32.98486643156198</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>85.34373302621225</v>
-      </c>
       <c r="L11">
-        <v>5.315105438392817</v>
-      </c>
-      <c r="M11">
-        <v>56.88269374998076</v>
-      </c>
-      <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>35.61956439884539</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>7.784680503549827</v>
+        <v>1.892212832687338</v>
       </c>
       <c r="D12">
-        <v>15.0015402518779</v>
+        <v>2.791510416218328</v>
       </c>
       <c r="E12">
-        <v>4.670587443893331</v>
+        <v>42.45764384921091</v>
       </c>
       <c r="F12">
-        <v>102.3717126075805</v>
+        <v>45.27651139029813</v>
       </c>
       <c r="G12">
-        <v>1.700679976419503</v>
+        <v>1.925806061107578</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>33.472853878462</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>87.68754208952195</v>
-      </c>
       <c r="L12">
-        <v>5.353173499421761</v>
-      </c>
-      <c r="M12">
-        <v>58.46835347588426</v>
-      </c>
-      <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>36.14844865512947</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>7.748691229752036</v>
+        <v>1.888320830570255</v>
       </c>
       <c r="D13">
-        <v>14.86316665239831</v>
+        <v>2.783835253594944</v>
       </c>
       <c r="E13">
-        <v>4.685340538115418</v>
+        <v>42.31391537123741</v>
       </c>
       <c r="F13">
-        <v>101.5707871665798</v>
+        <v>45.13515145254598</v>
       </c>
       <c r="G13">
-        <v>1.707043046827488</v>
+        <v>1.926510938381872</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>33.36797299642986</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>87.160855023859</v>
-      </c>
       <c r="L13">
-        <v>5.344509902430083</v>
-      </c>
-      <c r="M13">
-        <v>58.11190039720129</v>
-      </c>
-      <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>36.03477017946508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>7.640237437548297</v>
+        <v>1.875649786572512</v>
       </c>
       <c r="D14">
-        <v>14.44142501821542</v>
+        <v>2.758878730342057</v>
       </c>
       <c r="E14">
-        <v>4.731506266063413</v>
+        <v>41.84493701685422</v>
       </c>
       <c r="F14">
-        <v>99.11684187320392</v>
+        <v>44.67306407901281</v>
       </c>
       <c r="G14">
-        <v>1.726461789251656</v>
+        <v>1.928806980889874</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>33.0251118656114</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>85.52770683126842</v>
-      </c>
       <c r="L14">
-        <v>5.318049127439303</v>
-      </c>
-      <c r="M14">
-        <v>57.00710307495709</v>
-      </c>
-      <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>35.66317918426407</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>7.579483653355215</v>
+        <v>1.867904249132957</v>
       </c>
       <c r="D15">
-        <v>14.20171975010695</v>
+        <v>2.743646221452086</v>
       </c>
       <c r="E15">
-        <v>4.758529009675668</v>
+        <v>41.55744772836099</v>
       </c>
       <c r="F15">
-        <v>97.71331238919136</v>
+        <v>44.38917304826679</v>
       </c>
       <c r="G15">
-        <v>1.737517110978186</v>
+        <v>1.930211452152712</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>32.81445435038017</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>84.58024405617589</v>
-      </c>
       <c r="L15">
-        <v>5.302967100719004</v>
-      </c>
-      <c r="M15">
-        <v>56.36649434779187</v>
-      </c>
-      <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>35.43489233826055</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>7.289679845817925</v>
+        <v>1.823731488641139</v>
       </c>
       <c r="D16">
-        <v>13.01482559491568</v>
+        <v>2.657080396358112</v>
       </c>
       <c r="E16">
-        <v>4.900244598258299</v>
+        <v>39.90510733979905</v>
       </c>
       <c r="F16">
-        <v>90.6651007607211</v>
+        <v>42.748594535064</v>
       </c>
       <c r="G16">
-        <v>1.792499728236729</v>
+        <v>1.938236957362161</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>31.59683445607246</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>79.66869263464744</v>
-      </c>
       <c r="L16">
-        <v>5.227723370882593</v>
-      </c>
-      <c r="M16">
-        <v>53.0493870992722</v>
-      </c>
-      <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>34.11570555999101</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>7.146803259471528</v>
+        <v>1.79679586468714</v>
       </c>
       <c r="D17">
-        <v>12.39482444435348</v>
+        <v>2.60451897295196</v>
       </c>
       <c r="E17">
-        <v>4.979267338442949</v>
+        <v>38.88572287650462</v>
       </c>
       <c r="F17">
-        <v>86.91331894027053</v>
+        <v>41.72920756280238</v>
       </c>
       <c r="G17">
-        <v>1.821428892609813</v>
+        <v>1.943146463650311</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30.84001227534047</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>76.94393454136681</v>
-      </c>
       <c r="L17">
-        <v>5.187976589647623</v>
-      </c>
-      <c r="M17">
-        <v>51.21171142857457</v>
-      </c>
-      <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>33.29603471178539</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>7.073429968620927</v>
+        <v>1.781353462906106</v>
       </c>
       <c r="D18">
-        <v>12.06438198447498</v>
+        <v>2.574449245576169</v>
       </c>
       <c r="E18">
-        <v>5.022742225140706</v>
+        <v>38.29678332875974</v>
       </c>
       <c r="F18">
-        <v>84.89233413406079</v>
+        <v>41.13786450955133</v>
       </c>
       <c r="G18">
-        <v>1.83692409687992</v>
+        <v>1.945967623557023</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>30.40088460386863</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>75.44226540865834</v>
-      </c>
       <c r="L18">
-        <v>5.16665211790693</v>
-      </c>
-      <c r="M18">
-        <v>50.19964954450592</v>
-      </c>
-      <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>32.82053801467184</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>7.049858186202762</v>
+        <v>1.776132770408687</v>
       </c>
       <c r="D19">
-        <v>11.95619160782406</v>
+        <v>2.564292725646658</v>
       </c>
       <c r="E19">
-        <v>5.037180707700847</v>
+        <v>38.09688402867003</v>
       </c>
       <c r="F19">
-        <v>84.22724156015437</v>
+        <v>40.93676084684342</v>
       </c>
       <c r="G19">
-        <v>1.842010815197608</v>
+        <v>1.946922580246249</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>30.25152876477413</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>74.94268365552786</v>
-      </c>
       <c r="L19">
-        <v>5.159647877917579</v>
-      </c>
-      <c r="M19">
-        <v>49.86306084736308</v>
-      </c>
-      <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>32.65882855888054</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>7.161038189854272</v>
+        <v>1.799657811011868</v>
       </c>
       <c r="D20">
-        <v>12.45790574090138</v>
+        <v>2.610096639414356</v>
       </c>
       <c r="E20">
-        <v>4.971074954338624</v>
+        <v>38.99449797505228</v>
       </c>
       <c r="F20">
-        <v>87.29738917857074</v>
+        <v>41.8382368609613</v>
       </c>
       <c r="G20">
-        <v>1.818477405778373</v>
+        <v>1.942624165897125</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>30.92096864997866</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>77.22657677682916</v>
-      </c>
       <c r="L20">
-        <v>5.192035991008701</v>
-      </c>
-      <c r="M20">
-        <v>51.40225626077461</v>
-      </c>
-      <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>33.38370376114045</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>7.670807484148096</v>
+        <v>1.879368202807328</v>
       </c>
       <c r="D21">
-        <v>14.56106569893552</v>
+        <v>2.766197535147504</v>
       </c>
       <c r="E21">
-        <v>4.718229052941025</v>
+        <v>41.98273105990081</v>
       </c>
       <c r="F21">
-        <v>99.81496761266206</v>
+        <v>44.80896556426038</v>
       </c>
       <c r="G21">
-        <v>1.720949022495127</v>
+        <v>1.928132994100161</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>33.12595160289656</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>85.99533168638595</v>
-      </c>
       <c r="L21">
-        <v>5.325564753067455</v>
-      </c>
-      <c r="M21">
-        <v>57.32336837874954</v>
-      </c>
-      <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>35.77246398943171</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>8.288464189216498</v>
+        <v>1.932145100572021</v>
       </c>
       <c r="D22">
-        <v>16.87774608296351</v>
+        <v>2.870533811328222</v>
       </c>
       <c r="E22">
-        <v>4.49174899227904</v>
+        <v>43.92415313644498</v>
       </c>
       <c r="F22">
-        <v>113.03427218402</v>
+        <v>46.71177473722904</v>
       </c>
       <c r="G22">
-        <v>1.614730476539779</v>
+        <v>1.918582969396937</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>34.53759581181267</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>94.41362470076257</v>
-      </c>
       <c r="L22">
-        <v>5.470237722250746</v>
-      </c>
-      <c r="M22">
-        <v>63.0274947707186</v>
-      </c>
-      <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>37.30274940311472</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>7.902288191855339</v>
+        <v>1.903900774152004</v>
       </c>
       <c r="D23">
-        <v>15.44890581270336</v>
+        <v>2.814587345810921</v>
       </c>
       <c r="E23">
-        <v>4.624273341180425</v>
+        <v>42.8883923913195</v>
       </c>
       <c r="F23">
-        <v>104.9471598546871</v>
+        <v>45.69943000408983</v>
       </c>
       <c r="G23">
-        <v>1.680133244350345</v>
+        <v>1.92369025339514</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>33.786619436944</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>89.36037643295084</v>
-      </c>
       <c r="L23">
-        <v>5.381133854779639</v>
-      </c>
-      <c r="M23">
-        <v>59.60102151890288</v>
-      </c>
-      <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>36.488559217684</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>7.154576116835509</v>
+        <v>1.798363792628935</v>
       </c>
       <c r="D24">
-        <v>12.42930854660705</v>
+        <v>2.607574522604434</v>
       </c>
       <c r="E24">
-        <v>4.97478462496665</v>
+        <v>38.94532984956287</v>
       </c>
       <c r="F24">
-        <v>87.12334297115601</v>
+        <v>41.78896123490096</v>
       </c>
       <c r="G24">
-        <v>1.819815182358643</v>
+        <v>1.942860300437511</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>30.88438084377621</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>77.09860080940545</v>
-      </c>
       <c r="L24">
-        <v>5.190196153144723</v>
-      </c>
-      <c r="M24">
-        <v>51.31597832719736</v>
-      </c>
-      <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>33.34408189635099</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>6.722661640120174</v>
+        <v>1.686407551424167</v>
       </c>
       <c r="D25">
-        <v>10.59141745407231</v>
+        <v>2.390199851537466</v>
       </c>
       <c r="E25">
-        <v>5.269980022772224</v>
+        <v>34.58795469758235</v>
       </c>
       <c r="F25">
-        <v>73.85827883547516</v>
+        <v>37.37686830819435</v>
       </c>
       <c r="G25">
-        <v>1.920649455182621</v>
+        <v>1.96345743515655</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>27.60592657428321</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>66.77492811763335</v>
-      </c>
       <c r="L25">
-        <v>5.051418052803975</v>
-      </c>
-      <c r="M25">
-        <v>44.36704696287678</v>
-      </c>
-      <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>29.79575202850843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.604881059322816</v>
+        <v>2.177054233802296</v>
       </c>
       <c r="D2">
-        <v>2.23185109210285</v>
+        <v>2.94415561582875</v>
       </c>
       <c r="E2">
-        <v>31.24217347962265</v>
+        <v>16.66802848903047</v>
       </c>
       <c r="F2">
-        <v>33.93664512644636</v>
+        <v>24.47134540445464</v>
       </c>
       <c r="G2">
-        <v>1.978787400582406</v>
+        <v>3.567526063762902</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.04517727779046</v>
+        <v>19.59752123846184</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.02694596348244</v>
+        <v>20.89182271100765</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.550045393349223</v>
+        <v>2.172435147857623</v>
       </c>
       <c r="D3">
-        <v>2.124375878529157</v>
+        <v>2.954999009823079</v>
       </c>
       <c r="E3">
-        <v>28.87033717357183</v>
+        <v>15.70626053483033</v>
       </c>
       <c r="F3">
-        <v>31.47630387485409</v>
+        <v>23.77279097030631</v>
       </c>
       <c r="G3">
-        <v>1.989372520803173</v>
+        <v>3.571234858655119</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.21037613844267</v>
+        <v>19.17331663189021</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.04460434424394</v>
+        <v>20.41879351793053</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.516576709119612</v>
+        <v>2.169938876734689</v>
       </c>
       <c r="D4">
-        <v>2.05800331295133</v>
+        <v>2.962158412889017</v>
       </c>
       <c r="E4">
-        <v>27.35744818873204</v>
+        <v>15.09050342618857</v>
       </c>
       <c r="F4">
-        <v>29.89974647350228</v>
+        <v>23.34195226825212</v>
       </c>
       <c r="G4">
-        <v>1.99599436583687</v>
+        <v>3.573629020972074</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.03269537528136</v>
+        <v>18.9147953252135</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.77294354068077</v>
+        <v>20.12992364643339</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.502991807846932</v>
+        <v>2.169007673702026</v>
       </c>
       <c r="D5">
-        <v>2.03082384564613</v>
+        <v>2.965201582666258</v>
       </c>
       <c r="E5">
-        <v>26.72604132247013</v>
+        <v>14.83349963441479</v>
       </c>
       <c r="F5">
-        <v>29.24045126131536</v>
+        <v>23.16620146761176</v>
       </c>
       <c r="G5">
-        <v>1.998727053925479</v>
+        <v>3.574634190340249</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.53966553640621</v>
+        <v>18.81009776041389</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.24074678007133</v>
+        <v>20.01278767864559</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.500739455072916</v>
+        <v>2.168858261243664</v>
       </c>
       <c r="D6">
-        <v>2.026301824095471</v>
+        <v>2.965714475023161</v>
       </c>
       <c r="E6">
-        <v>26.62027903914442</v>
+        <v>14.79046609958024</v>
       </c>
       <c r="F6">
-        <v>29.12995265558502</v>
+        <v>23.13701640717184</v>
       </c>
       <c r="G6">
-        <v>1.999182975905622</v>
+        <v>3.574802884975814</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.45699919430961</v>
+        <v>18.79275700330085</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.15152393411624</v>
+        <v>19.99337790370625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.51639327361536</v>
+        <v>2.169925969035361</v>
       </c>
       <c r="D7">
-        <v>2.05763733827507</v>
+        <v>2.962198946007249</v>
       </c>
       <c r="E7">
-        <v>27.34899394515729</v>
+        <v>15.08706160069392</v>
       </c>
       <c r="F7">
-        <v>29.89092345042308</v>
+        <v>23.33958235184757</v>
       </c>
       <c r="G7">
-        <v>1.996031076940518</v>
+        <v>3.573642457318738</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.02609962746219</v>
+        <v>18.91338048007337</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.76582311124392</v>
+        <v>20.12834131072605</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.585933098646238</v>
+        <v>2.175391400923914</v>
       </c>
       <c r="D8">
-        <v>2.194848933027356</v>
+        <v>2.947790048412123</v>
       </c>
       <c r="E8">
-        <v>30.43568125447067</v>
+        <v>16.34179060929392</v>
       </c>
       <c r="F8">
-        <v>33.10181438016058</v>
+        <v>24.23106040309863</v>
       </c>
       <c r="G8">
-        <v>1.982413886964433</v>
+        <v>3.568780657122227</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.42297292766788</v>
+        <v>19.45094988731148</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.35456083120607</v>
+        <v>20.72850622303068</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.723946472477121</v>
+        <v>2.188778008507341</v>
       </c>
       <c r="D9">
-        <v>2.462965688450808</v>
+        <v>2.923534966248326</v>
       </c>
       <c r="E9">
-        <v>36.07429109778039</v>
+        <v>18.73688618351986</v>
       </c>
       <c r="F9">
-        <v>38.89141066579477</v>
+        <v>25.95145186653721</v>
       </c>
       <c r="G9">
-        <v>1.956507627152063</v>
+        <v>3.56016906549611</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.73192374578113</v>
+        <v>20.51348828274725</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.01399700260223</v>
+        <v>21.90996168125045</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.826812495605667</v>
+        <v>2.200200076093151</v>
       </c>
       <c r="D10">
-        <v>2.663102629872464</v>
+        <v>2.908184729423083</v>
       </c>
       <c r="E10">
-        <v>40.02110751215042</v>
+        <v>20.41905478277341</v>
       </c>
       <c r="F10">
-        <v>42.86425199072825</v>
+        <v>27.18294755802046</v>
       </c>
       <c r="G10">
-        <v>1.93767621650585</v>
+        <v>3.554396683160728</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.68268931691463</v>
+        <v>21.29013090498095</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.20870356236935</v>
+        <v>22.77054280716389</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.874167688813445</v>
+        <v>2.205731232051471</v>
       </c>
       <c r="D11">
-        <v>2.755962690386897</v>
+        <v>2.901745097343441</v>
       </c>
       <c r="E11">
-        <v>41.78997489797433</v>
+        <v>21.14206437904656</v>
       </c>
       <c r="F11">
-        <v>44.61882639419563</v>
+        <v>27.73323559559246</v>
       </c>
       <c r="G11">
-        <v>1.92907566713644</v>
+        <v>3.551889431349227</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.98486643156198</v>
+        <v>21.64077404586611</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.61956439884539</v>
+        <v>23.15842820242476</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.892212832687338</v>
+        <v>2.207873030907799</v>
       </c>
       <c r="D12">
-        <v>2.791510416218328</v>
+        <v>2.899385351457923</v>
       </c>
       <c r="E12">
-        <v>42.45764384921091</v>
+        <v>21.40981913813112</v>
       </c>
       <c r="F12">
-        <v>45.27651139029813</v>
+        <v>27.93997367935109</v>
       </c>
       <c r="G12">
-        <v>1.925806061107578</v>
+        <v>3.550956931082514</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.472853878462</v>
+        <v>21.77303194831455</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.14844865512947</v>
+        <v>23.30463903254853</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.888320830570255</v>
+        <v>2.207409669198076</v>
       </c>
       <c r="D13">
-        <v>2.783835253594944</v>
+        <v>2.899890048953038</v>
       </c>
       <c r="E13">
-        <v>42.31391537123741</v>
+        <v>21.35242109623705</v>
       </c>
       <c r="F13">
-        <v>45.13515145254598</v>
+        <v>27.89552529305414</v>
       </c>
       <c r="G13">
-        <v>1.926510938381872</v>
+        <v>3.551157010091559</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.36797299642986</v>
+        <v>21.74457326096305</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>36.03477017946508</v>
+        <v>23.27318221303181</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.875649786572512</v>
+        <v>2.20590649727083</v>
       </c>
       <c r="D14">
-        <v>2.758878730342057</v>
+        <v>2.901549376282046</v>
       </c>
       <c r="E14">
-        <v>41.84493701685422</v>
+        <v>21.16421342581507</v>
       </c>
       <c r="F14">
-        <v>44.67306407901281</v>
+        <v>27.75027818211138</v>
       </c>
       <c r="G14">
-        <v>1.928806980889874</v>
+        <v>3.551812375130762</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.0251118656114</v>
+        <v>21.65166624362909</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.66317918426407</v>
+        <v>23.17047139746499</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.867904249132957</v>
+        <v>2.204991888575427</v>
       </c>
       <c r="D15">
-        <v>2.743646221452086</v>
+        <v>2.902576045441826</v>
       </c>
       <c r="E15">
-        <v>41.55744772836099</v>
+        <v>21.04814619265929</v>
       </c>
       <c r="F15">
-        <v>44.38917304826679</v>
+        <v>27.66108993610327</v>
       </c>
       <c r="G15">
-        <v>1.930211452152712</v>
+        <v>3.552216007939524</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.81445435038017</v>
+        <v>21.59468585420252</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.43489233826055</v>
+        <v>23.10746597431885</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.823731488641139</v>
+        <v>2.199845268635152</v>
       </c>
       <c r="D16">
-        <v>2.657080396358112</v>
+        <v>2.908616564002022</v>
       </c>
       <c r="E16">
-        <v>39.90510733979905</v>
+        <v>20.37095809521562</v>
       </c>
       <c r="F16">
-        <v>42.748594535064</v>
+        <v>27.14676622563292</v>
       </c>
       <c r="G16">
-        <v>1.938236957362161</v>
+        <v>3.554562915103452</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.59683445607246</v>
+        <v>21.2671498507566</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.11570555999101</v>
+        <v>22.7451076581375</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.79679586468714</v>
+        <v>2.196773189785387</v>
       </c>
       <c r="D17">
-        <v>2.60451897295196</v>
+        <v>2.912461845258358</v>
       </c>
       <c r="E17">
-        <v>38.88572287650462</v>
+        <v>19.94473900356369</v>
       </c>
       <c r="F17">
-        <v>41.72920756280238</v>
+        <v>26.82854251495648</v>
       </c>
       <c r="G17">
-        <v>1.943146463650311</v>
+        <v>3.556032967714196</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.84001227534047</v>
+        <v>21.06543382608179</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.29603471178539</v>
+        <v>22.52177723928166</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.781353462906106</v>
+        <v>2.19503782080948</v>
       </c>
       <c r="D18">
-        <v>2.574449245576169</v>
+        <v>2.914724641524839</v>
       </c>
       <c r="E18">
-        <v>38.29678332875974</v>
+        <v>19.69561312536637</v>
       </c>
       <c r="F18">
-        <v>41.13786450955133</v>
+        <v>26.64458609276428</v>
       </c>
       <c r="G18">
-        <v>1.945967623557023</v>
+        <v>3.556889676510139</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.40088460386863</v>
+        <v>20.94917007532184</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.82053801467184</v>
+        <v>22.39299357549156</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.776132770408687</v>
+        <v>2.194455711243687</v>
       </c>
       <c r="D19">
-        <v>2.564292725646658</v>
+        <v>2.915499540319687</v>
       </c>
       <c r="E19">
-        <v>38.09688402867003</v>
+        <v>19.61057936871486</v>
       </c>
       <c r="F19">
-        <v>40.93676084684342</v>
+        <v>26.58215009205562</v>
       </c>
       <c r="G19">
-        <v>1.946922580246249</v>
+        <v>3.557181666024127</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.25152876477413</v>
+        <v>20.90976804047983</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.65882855888054</v>
+        <v>22.34933788662767</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.799657811011868</v>
+        <v>2.197096952948382</v>
       </c>
       <c r="D20">
-        <v>2.610096639414356</v>
+        <v>2.912047215823319</v>
       </c>
       <c r="E20">
-        <v>38.99449797505228</v>
+        <v>19.99052197472227</v>
       </c>
       <c r="F20">
-        <v>41.8382368609613</v>
+        <v>26.8625150876032</v>
       </c>
       <c r="G20">
-        <v>1.942624165897125</v>
+        <v>3.555875322552377</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.92096864997866</v>
+        <v>21.08693294040409</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.38370376114045</v>
+        <v>22.54558644856849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.879368202807328</v>
+        <v>2.206346740066932</v>
       </c>
       <c r="D21">
-        <v>2.766197535147504</v>
+        <v>2.901059847334213</v>
       </c>
       <c r="E21">
-        <v>41.98273105990081</v>
+        <v>21.21965802419764</v>
       </c>
       <c r="F21">
-        <v>44.80896556426038</v>
+        <v>27.79298702711993</v>
       </c>
       <c r="G21">
-        <v>1.928132994100161</v>
+        <v>3.55161941968067</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.12595160289656</v>
+        <v>21.67897056426082</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.77246398943171</v>
+        <v>23.20065950705425</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.932145100572021</v>
+        <v>2.212667072012585</v>
       </c>
       <c r="D22">
-        <v>2.870533811328222</v>
+        <v>2.894338630682327</v>
       </c>
       <c r="E22">
-        <v>43.92415313644498</v>
+        <v>21.9878201978673</v>
       </c>
       <c r="F22">
-        <v>46.71177473722904</v>
+        <v>28.39143486394574</v>
       </c>
       <c r="G22">
-        <v>1.918582969396937</v>
+        <v>3.548936635058832</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.53759581181267</v>
+        <v>22.06279337296465</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.30274940311472</v>
+        <v>23.62480026203088</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.903900774152004</v>
+        <v>2.209268943687952</v>
       </c>
       <c r="D23">
-        <v>2.814587345810921</v>
+        <v>2.897883577502841</v>
       </c>
       <c r="E23">
-        <v>42.8883923913195</v>
+        <v>21.58104139471089</v>
       </c>
       <c r="F23">
-        <v>45.69943000408983</v>
+        <v>28.07298321618889</v>
       </c>
       <c r="G23">
-        <v>1.92369025339514</v>
+        <v>3.550359496084197</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.786619436944</v>
+        <v>21.85826868709069</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.488559217684</v>
+        <v>23.39884195881071</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.798363792628935</v>
+        <v>2.196950483585782</v>
       </c>
       <c r="D24">
-        <v>2.607574522604434</v>
+        <v>2.912234507584557</v>
       </c>
       <c r="E24">
-        <v>38.94532984956287</v>
+        <v>19.96983622591272</v>
       </c>
       <c r="F24">
-        <v>41.78896123490096</v>
+        <v>26.84715920235389</v>
       </c>
       <c r="G24">
-        <v>1.942860300437511</v>
+        <v>3.555946557926888</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.88438084377621</v>
+        <v>21.07721409737909</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.34408189635099</v>
+        <v>22.5348235017563</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.686407551424167</v>
+        <v>2.184874773439678</v>
       </c>
       <c r="D25">
-        <v>2.390199851537466</v>
+        <v>2.929665206824606</v>
       </c>
       <c r="E25">
-        <v>34.58795469758235</v>
+        <v>18.07972582065041</v>
       </c>
       <c r="F25">
-        <v>37.37686830819435</v>
+        <v>25.49069301138038</v>
       </c>
       <c r="G25">
-        <v>1.96345743515655</v>
+        <v>3.562400784297299</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.60592657428321</v>
+        <v>20.22611050585472</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.79575202850843</v>
+        <v>21.590943052209</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.177054233802296</v>
+        <v>1.604881059322626</v>
       </c>
       <c r="D2">
-        <v>2.94415561582875</v>
+        <v>2.231851092102843</v>
       </c>
       <c r="E2">
-        <v>16.66802848903047</v>
+        <v>31.24217347962258</v>
       </c>
       <c r="F2">
-        <v>24.47134540445464</v>
+        <v>33.93664512644624</v>
       </c>
       <c r="G2">
-        <v>3.567526063762902</v>
+        <v>1.978787400582541</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.59752123846184</v>
+        <v>25.04517727779036</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.89182271100765</v>
+        <v>27.02694596348231</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.172435147857623</v>
+        <v>1.550045393349217</v>
       </c>
       <c r="D3">
-        <v>2.954999009823079</v>
+        <v>2.124375878529043</v>
       </c>
       <c r="E3">
-        <v>15.70626053483033</v>
+        <v>28.87033717357187</v>
       </c>
       <c r="F3">
-        <v>23.77279097030631</v>
+        <v>31.47630387485416</v>
       </c>
       <c r="G3">
-        <v>3.571234858655119</v>
+        <v>1.989372520803305</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.17331663189021</v>
+        <v>23.21037613844271</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.41879351793053</v>
+        <v>25.044604344244</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.169938876734689</v>
+        <v>1.516576709119696</v>
       </c>
       <c r="D4">
-        <v>2.962158412889017</v>
+        <v>2.058003312951338</v>
       </c>
       <c r="E4">
-        <v>15.09050342618857</v>
+        <v>27.35744818873206</v>
       </c>
       <c r="F4">
-        <v>23.34195226825212</v>
+        <v>29.89974647350225</v>
       </c>
       <c r="G4">
-        <v>3.573629020972074</v>
+        <v>1.99599436583687</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.9147953252135</v>
+        <v>22.03269537528131</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.12992364643339</v>
+        <v>23.77294354068073</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.169007673702026</v>
+        <v>1.502991807846909</v>
       </c>
       <c r="D5">
-        <v>2.965201582666258</v>
+        <v>2.030823845645944</v>
       </c>
       <c r="E5">
-        <v>14.83349963441479</v>
+        <v>26.72604132247017</v>
       </c>
       <c r="F5">
-        <v>23.16620146761176</v>
+        <v>29.24045126131533</v>
       </c>
       <c r="G5">
-        <v>3.574634190340249</v>
+        <v>1.998727053925478</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.81009776041389</v>
+        <v>21.53966553640616</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.01278767864559</v>
+        <v>23.24074678007128</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.168858261243664</v>
+        <v>1.500739455072939</v>
       </c>
       <c r="D6">
-        <v>2.965714475023161</v>
+        <v>2.026301824095413</v>
       </c>
       <c r="E6">
-        <v>14.79046609958024</v>
+        <v>26.62027903914455</v>
       </c>
       <c r="F6">
-        <v>23.13701640717184</v>
+        <v>29.12995265558512</v>
       </c>
       <c r="G6">
-        <v>3.574802884975814</v>
+        <v>1.999182975905623</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.79275700330085</v>
+        <v>21.45699919430971</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.99337790370625</v>
+        <v>23.15152393411633</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.169925969035361</v>
+        <v>1.516393273615354</v>
       </c>
       <c r="D7">
-        <v>2.962198946007249</v>
+        <v>2.057637338275081</v>
       </c>
       <c r="E7">
-        <v>15.08706160069392</v>
+        <v>27.34899394515724</v>
       </c>
       <c r="F7">
-        <v>23.33958235184757</v>
+        <v>29.89092345042316</v>
       </c>
       <c r="G7">
-        <v>3.573642457318738</v>
+        <v>1.996031076940651</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.91338048007337</v>
+        <v>22.02609962746226</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.12834131072605</v>
+        <v>23.765823111244</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.175391400923914</v>
+        <v>1.585933098646148</v>
       </c>
       <c r="D8">
-        <v>2.947790048412123</v>
+        <v>2.194848933027171</v>
       </c>
       <c r="E8">
-        <v>16.34179060929392</v>
+        <v>30.43568125447068</v>
       </c>
       <c r="F8">
-        <v>24.23106040309863</v>
+        <v>33.10181438016059</v>
       </c>
       <c r="G8">
-        <v>3.568780657122227</v>
+        <v>1.98241388696443</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.45094988731148</v>
+        <v>24.42297292766789</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.72850622303068</v>
+        <v>26.35456083120607</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.188778008507341</v>
+        <v>1.723946472477093</v>
       </c>
       <c r="D9">
-        <v>2.923534966248326</v>
+        <v>2.462965688450751</v>
       </c>
       <c r="E9">
-        <v>18.73688618351986</v>
+        <v>36.07429109778035</v>
       </c>
       <c r="F9">
-        <v>25.95145186653721</v>
+        <v>38.89141066579489</v>
       </c>
       <c r="G9">
-        <v>3.56016906549611</v>
+        <v>1.95650762715206</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.51348828274725</v>
+        <v>28.73192374578124</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.90996168125045</v>
+        <v>31.01399700260232</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.200200076093151</v>
+        <v>1.826812495605562</v>
       </c>
       <c r="D10">
-        <v>2.908184729423083</v>
+        <v>2.663102629872528</v>
       </c>
       <c r="E10">
-        <v>20.41905478277341</v>
+        <v>40.02110751215051</v>
       </c>
       <c r="F10">
-        <v>27.18294755802046</v>
+        <v>42.86425199072834</v>
       </c>
       <c r="G10">
-        <v>3.554396683160728</v>
+        <v>1.937676216505714</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.29013090498095</v>
+        <v>31.68268931691473</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.77054280716389</v>
+        <v>34.20870356236945</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.205731232051471</v>
+        <v>1.87416768881344</v>
       </c>
       <c r="D11">
-        <v>2.901745097343441</v>
+        <v>2.755962690386949</v>
       </c>
       <c r="E11">
-        <v>21.14206437904656</v>
+        <v>41.78997489797437</v>
       </c>
       <c r="F11">
-        <v>27.73323559559246</v>
+        <v>44.61882639419557</v>
       </c>
       <c r="G11">
-        <v>3.551889431349227</v>
+        <v>1.929075667136179</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.64077404586611</v>
+        <v>32.98486643156195</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.15842820242476</v>
+        <v>35.61956439884533</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.207873030907799</v>
+        <v>1.89221283268732</v>
       </c>
       <c r="D12">
-        <v>2.899385351457923</v>
+        <v>2.791510416218072</v>
       </c>
       <c r="E12">
-        <v>21.40981913813112</v>
+        <v>42.45764384921088</v>
       </c>
       <c r="F12">
-        <v>27.93997367935109</v>
+        <v>45.27651139029808</v>
       </c>
       <c r="G12">
-        <v>3.550956931082514</v>
+        <v>1.925806061107448</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.77303194831455</v>
+        <v>33.47285387846197</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.30463903254853</v>
+        <v>36.14844865512939</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.207409669198076</v>
+        <v>1.888320830570227</v>
       </c>
       <c r="D13">
-        <v>2.899890048953038</v>
+        <v>2.783835253594884</v>
       </c>
       <c r="E13">
-        <v>21.35242109623705</v>
+        <v>42.31391537123735</v>
       </c>
       <c r="F13">
-        <v>27.89552529305414</v>
+        <v>45.13515145254585</v>
       </c>
       <c r="G13">
-        <v>3.551157010091559</v>
+        <v>1.92651093838187</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.74457326096305</v>
+        <v>33.36797299642976</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.27318221303181</v>
+        <v>36.03477017946498</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.20590649727083</v>
+        <v>1.875649786572601</v>
       </c>
       <c r="D14">
-        <v>2.901549376282046</v>
+        <v>2.758878730342311</v>
       </c>
       <c r="E14">
-        <v>21.16421342581507</v>
+        <v>41.84493701685415</v>
       </c>
       <c r="F14">
-        <v>27.75027818211138</v>
+        <v>44.67306407901272</v>
       </c>
       <c r="G14">
-        <v>3.551812375130762</v>
+        <v>1.928806980890016</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.65166624362909</v>
+        <v>33.02511186561139</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.17047139746499</v>
+        <v>35.66317918426404</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.204991888575427</v>
+        <v>1.867904249133046</v>
       </c>
       <c r="D15">
-        <v>2.902576045441826</v>
+        <v>2.743646221452022</v>
       </c>
       <c r="E15">
-        <v>21.04814619265929</v>
+        <v>41.55744772836105</v>
       </c>
       <c r="F15">
-        <v>27.66108993610327</v>
+        <v>44.38917304826692</v>
       </c>
       <c r="G15">
-        <v>3.552216007939524</v>
+        <v>1.930211452152583</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.59468585420252</v>
+        <v>32.81445435038023</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.10746597431885</v>
+        <v>35.43489233826065</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.199845268635152</v>
+        <v>1.823731488641048</v>
       </c>
       <c r="D16">
-        <v>2.908616564002022</v>
+        <v>2.657080396358119</v>
       </c>
       <c r="E16">
-        <v>20.37095809521562</v>
+        <v>39.90510733979908</v>
       </c>
       <c r="F16">
-        <v>27.14676622563292</v>
+        <v>42.74859453506419</v>
       </c>
       <c r="G16">
-        <v>3.554562915103452</v>
+        <v>1.938236957362289</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.2671498507566</v>
+        <v>31.59683445607262</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.7451076581375</v>
+        <v>34.11570555999118</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.196773189785387</v>
+        <v>1.796795864687232</v>
       </c>
       <c r="D17">
-        <v>2.912461845258358</v>
+        <v>2.60451897295202</v>
       </c>
       <c r="E17">
-        <v>19.94473900356369</v>
+        <v>38.88572287650462</v>
       </c>
       <c r="F17">
-        <v>26.82854251495648</v>
+        <v>41.72920756280248</v>
       </c>
       <c r="G17">
-        <v>3.556032967714196</v>
+        <v>1.943146463650443</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.06543382608179</v>
+        <v>30.84001227534053</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.52177723928166</v>
+        <v>33.29603471178545</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.19503782080948</v>
+        <v>1.781353462906211</v>
       </c>
       <c r="D18">
-        <v>2.914724641524839</v>
+        <v>2.574449245575974</v>
       </c>
       <c r="E18">
-        <v>19.69561312536637</v>
+        <v>38.29678332875979</v>
       </c>
       <c r="F18">
-        <v>26.64458609276428</v>
+        <v>41.13786450955133</v>
       </c>
       <c r="G18">
-        <v>3.556889676510139</v>
+        <v>1.94596762355689</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.94917007532184</v>
+        <v>30.40088460386859</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.39299357549156</v>
+        <v>32.82053801467179</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.194455711243687</v>
+        <v>1.776132770408752</v>
       </c>
       <c r="D19">
-        <v>2.915499540319687</v>
+        <v>2.564292725646658</v>
       </c>
       <c r="E19">
-        <v>19.61057936871486</v>
+        <v>38.09688402867008</v>
       </c>
       <c r="F19">
-        <v>26.58215009205562</v>
+        <v>40.93676084684342</v>
       </c>
       <c r="G19">
-        <v>3.557181666024127</v>
+        <v>1.946922580246121</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.90976804047983</v>
+        <v>30.25152876477408</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.34933788662767</v>
+        <v>32.65882855888053</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.197096952948382</v>
+        <v>1.799657811011919</v>
       </c>
       <c r="D20">
-        <v>2.912047215823319</v>
+        <v>2.610096639414356</v>
       </c>
       <c r="E20">
-        <v>19.99052197472227</v>
+        <v>38.9944979750524</v>
       </c>
       <c r="F20">
-        <v>26.8625150876032</v>
+        <v>41.83823686096148</v>
       </c>
       <c r="G20">
-        <v>3.555875322552377</v>
+        <v>1.942624165897263</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.08693294040409</v>
+        <v>30.92096864997879</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.54558644856849</v>
+        <v>33.38370376114062</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>2.206346740066932</v>
+        <v>1.879368202807165</v>
       </c>
       <c r="D21">
-        <v>2.901059847334213</v>
+        <v>2.766197535147497</v>
       </c>
       <c r="E21">
-        <v>21.21965802419764</v>
+        <v>41.98273105990079</v>
       </c>
       <c r="F21">
-        <v>27.79298702711993</v>
+        <v>44.80896556426028</v>
       </c>
       <c r="G21">
-        <v>3.55161941968067</v>
+        <v>1.928132994100159</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.67897056426082</v>
+        <v>33.12595160289649</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.20065950705425</v>
+        <v>35.77246398943162</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.212667072012585</v>
+        <v>1.932145100571903</v>
       </c>
       <c r="D22">
-        <v>2.894338630682327</v>
+        <v>2.870533811328222</v>
       </c>
       <c r="E22">
-        <v>21.9878201978673</v>
+        <v>43.92415313644508</v>
       </c>
       <c r="F22">
-        <v>28.39143486394574</v>
+        <v>46.71177473722911</v>
       </c>
       <c r="G22">
-        <v>3.548936635058832</v>
+        <v>1.918582969397073</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.06279337296465</v>
+        <v>34.53759581181278</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.62480026203088</v>
+        <v>37.3027494031148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.209268943687952</v>
+        <v>1.903900774151962</v>
       </c>
       <c r="D23">
-        <v>2.897883577502841</v>
+        <v>2.814587345811049</v>
       </c>
       <c r="E23">
-        <v>21.58104139471089</v>
+        <v>42.88839239131945</v>
       </c>
       <c r="F23">
-        <v>28.07298321618889</v>
+        <v>45.69943000408983</v>
       </c>
       <c r="G23">
-        <v>3.550359496084197</v>
+        <v>1.923690253395265</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.85826868709069</v>
+        <v>33.78661943694404</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.39884195881071</v>
+        <v>36.48855921768402</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.196950483585782</v>
+        <v>1.798363792629027</v>
       </c>
       <c r="D24">
-        <v>2.912234507584557</v>
+        <v>2.607574522604306</v>
       </c>
       <c r="E24">
-        <v>19.96983622591272</v>
+        <v>38.94532984956295</v>
       </c>
       <c r="F24">
-        <v>26.84715920235389</v>
+        <v>41.7889612349011</v>
       </c>
       <c r="G24">
-        <v>3.555946557926888</v>
+        <v>1.94286030043738</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.07721409737909</v>
+        <v>30.88438084377629</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.5348235017563</v>
+        <v>33.3440818963511</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.184874773439678</v>
+        <v>1.686407551423986</v>
       </c>
       <c r="D25">
-        <v>2.929665206824606</v>
+        <v>2.39019985153753</v>
       </c>
       <c r="E25">
-        <v>18.07972582065041</v>
+        <v>34.58795469758228</v>
       </c>
       <c r="F25">
-        <v>25.49069301138038</v>
+        <v>37.37686830819429</v>
       </c>
       <c r="G25">
-        <v>3.562400784297299</v>
+        <v>1.963457435156415</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.22611050585472</v>
+        <v>27.60592657428316</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.590943052209</v>
+        <v>29.79575202850838</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>1.604881059322626</v>
+        <v>7.592728192394723</v>
       </c>
       <c r="D2">
-        <v>2.231851092102843</v>
+        <v>4.997284463950464</v>
       </c>
       <c r="E2">
-        <v>31.24217347962258</v>
+        <v>8.307571940589705</v>
       </c>
       <c r="F2">
-        <v>33.93664512644624</v>
+        <v>23.95284827450216</v>
       </c>
       <c r="G2">
-        <v>1.978787400582541</v>
+        <v>32.97446904099708</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.430686997815573</v>
       </c>
       <c r="I2">
-        <v>25.04517727779036</v>
+        <v>2.887682430328625</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.27831320018908</v>
+      </c>
+      <c r="K2">
+        <v>20.26244302144609</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
+      <c r="M2">
+        <v>20.56179923107858</v>
+      </c>
+      <c r="N2">
+        <v>5.666684647835305</v>
+      </c>
       <c r="O2">
-        <v>27.02694596348231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.30426215862698</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>1.550045393349217</v>
+        <v>7.217464351441414</v>
       </c>
       <c r="D3">
-        <v>2.124375878529043</v>
+        <v>4.933006563239837</v>
       </c>
       <c r="E3">
-        <v>28.87033717357187</v>
+        <v>8.034318711991814</v>
       </c>
       <c r="F3">
-        <v>31.47630387485416</v>
+        <v>23.38544523327568</v>
       </c>
       <c r="G3">
-        <v>1.989372520803305</v>
+        <v>32.14469220118439</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.683875468656792</v>
       </c>
       <c r="I3">
-        <v>23.21037613844271</v>
+        <v>3.121947416100436</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.22702065273396</v>
+      </c>
+      <c r="K3">
+        <v>19.92158250824923</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
+      <c r="M3">
+        <v>19.22848351970533</v>
+      </c>
+      <c r="N3">
+        <v>5.589640338958787</v>
+      </c>
       <c r="O3">
-        <v>25.044604344244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.38583953792225</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>1.516576709119696</v>
+        <v>6.974165837877193</v>
       </c>
       <c r="D4">
-        <v>2.058003312951338</v>
+        <v>4.892642532356724</v>
       </c>
       <c r="E4">
-        <v>27.35744818873206</v>
+        <v>7.860225138107594</v>
       </c>
       <c r="F4">
-        <v>29.89974647350225</v>
+        <v>23.04068257953402</v>
       </c>
       <c r="G4">
-        <v>1.99599436583687</v>
+        <v>31.63879860237485</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.844520740854788</v>
       </c>
       <c r="I4">
-        <v>22.03269537528131</v>
+        <v>3.271625018941102</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.19914430128819</v>
+      </c>
+      <c r="K4">
+        <v>19.71295972343975</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
+      <c r="M4">
+        <v>18.36157563703124</v>
+      </c>
+      <c r="N4">
+        <v>5.541333880452008</v>
+      </c>
       <c r="O4">
-        <v>23.77294354068073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.79357304388859</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>1.502991807846909</v>
+        <v>6.863440406431365</v>
       </c>
       <c r="D5">
-        <v>2.030823845645944</v>
+        <v>4.877335096741684</v>
       </c>
       <c r="E5">
-        <v>26.72604132247017</v>
+        <v>7.785297439744834</v>
       </c>
       <c r="F5">
-        <v>29.24045126131533</v>
+        <v>22.88590585679431</v>
       </c>
       <c r="G5">
-        <v>1.998727053925478</v>
+        <v>31.40630359233472</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.911825951486898</v>
       </c>
       <c r="I5">
-        <v>21.53966553640616</v>
+        <v>3.337068195026947</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.18369062779831</v>
+      </c>
+      <c r="K5">
+        <v>19.61480362507708</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
+      <c r="M5">
+        <v>17.99628466842386</v>
+      </c>
+      <c r="N5">
+        <v>5.521516763688508</v>
+      </c>
       <c r="O5">
-        <v>23.24074678007128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.54382997760124</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>1.500739455072939</v>
+        <v>6.834649119732012</v>
       </c>
       <c r="D6">
-        <v>2.026301824095413</v>
+        <v>4.876459302514053</v>
       </c>
       <c r="E6">
-        <v>26.62027903914455</v>
+        <v>7.769801164287976</v>
       </c>
       <c r="F6">
-        <v>29.12995265558512</v>
+        <v>22.841542629039</v>
       </c>
       <c r="G6">
-        <v>1.999182975905623</v>
+        <v>31.33424864370217</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.923706675777569</v>
       </c>
       <c r="I6">
-        <v>21.45699919430971</v>
+        <v>3.351818365842795</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.17509767877634</v>
+      </c>
+      <c r="K6">
+        <v>19.58218925412195</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
+      <c r="M6">
+        <v>17.93506503213678</v>
+      </c>
+      <c r="N6">
+        <v>5.518361985171881</v>
+      </c>
       <c r="O6">
-        <v>23.15152393411633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.50024382952609</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>1.516393273615354</v>
+        <v>6.945236605471313</v>
       </c>
       <c r="D7">
-        <v>2.057637338275081</v>
+        <v>4.897049697011926</v>
       </c>
       <c r="E7">
-        <v>27.34899394515724</v>
+        <v>7.851232017794678</v>
       </c>
       <c r="F7">
-        <v>29.89092345042316</v>
+        <v>22.98783340497959</v>
       </c>
       <c r="G7">
-        <v>1.996031076940651</v>
+        <v>31.54483870827811</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.847103247069793</v>
       </c>
       <c r="I7">
-        <v>22.02609962746226</v>
+        <v>3.282608841887663</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.18237066116214</v>
+      </c>
+      <c r="K7">
+        <v>19.66726702241583</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
+      <c r="M7">
+        <v>18.35715198722458</v>
+      </c>
+      <c r="N7">
+        <v>5.541489967774499</v>
+      </c>
       <c r="O7">
-        <v>23.765823111244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.78567658364418</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>1.585933098646148</v>
+        <v>7.431717008777121</v>
       </c>
       <c r="D8">
-        <v>2.194848933027171</v>
+        <v>4.981538747925108</v>
       </c>
       <c r="E8">
-        <v>30.43568125447068</v>
+        <v>8.204552431209761</v>
       </c>
       <c r="F8">
-        <v>33.10181438016059</v>
+        <v>23.69130591037301</v>
       </c>
       <c r="G8">
-        <v>1.98241388696443</v>
+        <v>32.57116397221926</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.519048661857139</v>
       </c>
       <c r="I8">
-        <v>24.42297292766789</v>
+        <v>2.980455582216739</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.23816536235151</v>
+      </c>
+      <c r="K8">
+        <v>20.08729618925828</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
+      <c r="M8">
+        <v>20.11260067374509</v>
+      </c>
+      <c r="N8">
+        <v>5.640928977878739</v>
+      </c>
       <c r="O8">
-        <v>26.35456083120607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.98785828233421</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>1.723946472477093</v>
+        <v>8.328309387417706</v>
       </c>
       <c r="D9">
-        <v>2.462965688450751</v>
+        <v>5.131554948819547</v>
       </c>
       <c r="E9">
-        <v>36.07429109778035</v>
+        <v>8.859848262816126</v>
       </c>
       <c r="F9">
-        <v>38.89141066579489</v>
+        <v>25.18183050237439</v>
       </c>
       <c r="G9">
-        <v>1.95650762715206</v>
+        <v>34.76123831833682</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.912856490179641</v>
       </c>
       <c r="I9">
-        <v>28.73192374578124</v>
+        <v>2.539056929675288</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.40691407369086</v>
+      </c>
+      <c r="K9">
+        <v>20.99143899279686</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
+      <c r="M9">
+        <v>23.17323570204588</v>
+      </c>
+      <c r="N9">
+        <v>5.82725855183405</v>
+      </c>
       <c r="O9">
-        <v>31.01399700260232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.12379708524947</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>1.826812495605562</v>
+        <v>8.847503998720383</v>
       </c>
       <c r="D10">
-        <v>2.663102629872528</v>
+        <v>5.264132022494166</v>
       </c>
       <c r="E10">
-        <v>40.02110751215051</v>
+        <v>9.173657207844196</v>
       </c>
       <c r="F10">
-        <v>42.86425199072834</v>
+        <v>26.04151928161967</v>
       </c>
       <c r="G10">
-        <v>1.937676216505714</v>
+        <v>35.941720169288</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.621752486110246</v>
       </c>
       <c r="I10">
-        <v>31.68268931691473</v>
+        <v>2.910847024241562</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.46518222893332</v>
+      </c>
+      <c r="K10">
+        <v>21.44907261884169</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
+      <c r="M10">
+        <v>25.21075314733701</v>
+      </c>
+      <c r="N10">
+        <v>5.897879456434095</v>
+      </c>
       <c r="O10">
-        <v>34.20870356236945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.46284687265959</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>1.87416768881344</v>
+        <v>8.489599637639373</v>
       </c>
       <c r="D11">
-        <v>2.755962690386949</v>
+        <v>5.571759270755142</v>
       </c>
       <c r="E11">
-        <v>41.78997489797437</v>
+        <v>8.282012008254078</v>
       </c>
       <c r="F11">
-        <v>44.61882639419557</v>
+        <v>24.46147104649157</v>
       </c>
       <c r="G11">
-        <v>1.929075667136179</v>
+        <v>32.97804963966567</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.654694654632291</v>
       </c>
       <c r="I11">
-        <v>32.98486643156195</v>
+        <v>3.019647939336087</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.80160193231746</v>
+      </c>
+      <c r="K11">
+        <v>20.00186212195643</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
+      <c r="M11">
+        <v>26.2461799388605</v>
+      </c>
+      <c r="N11">
+        <v>5.50577792787957</v>
+      </c>
       <c r="O11">
-        <v>35.61956439884533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.30395996483256</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>1.89221283268732</v>
+        <v>8.129675110818022</v>
       </c>
       <c r="D12">
-        <v>2.791510416218072</v>
+        <v>5.828682720994858</v>
       </c>
       <c r="E12">
-        <v>42.45764384921088</v>
+        <v>7.666547321000665</v>
       </c>
       <c r="F12">
-        <v>45.27651139029808</v>
+        <v>22.99475646856738</v>
       </c>
       <c r="G12">
-        <v>1.925806061107448</v>
+        <v>30.3191547393572</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.049532876401019</v>
       </c>
       <c r="I12">
-        <v>33.47285387846197</v>
+        <v>3.03696142730936</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.25582300730041</v>
+      </c>
+      <c r="K12">
+        <v>18.74791450736853</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="M12">
+        <v>26.70957841408367</v>
+      </c>
+      <c r="N12">
+        <v>5.331456884148871</v>
+      </c>
       <c r="O12">
-        <v>36.14844865512939</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.89060469813191</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>1.888320830570227</v>
+        <v>7.704216051975235</v>
       </c>
       <c r="D13">
-        <v>2.783835253594884</v>
+        <v>6.065125338196139</v>
       </c>
       <c r="E13">
-        <v>42.31391537123735</v>
+        <v>7.251780784020204</v>
       </c>
       <c r="F13">
-        <v>45.13515145254585</v>
+        <v>21.42938374540373</v>
       </c>
       <c r="G13">
-        <v>1.92651093838187</v>
+        <v>27.56276588088949</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.505801435140076</v>
       </c>
       <c r="I13">
-        <v>33.36797299642976</v>
+        <v>2.987977199506525</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.743679387700768</v>
+      </c>
+      <c r="K13">
+        <v>17.4965576781807</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
+      <c r="M13">
+        <v>26.77644442500502</v>
+      </c>
+      <c r="N13">
+        <v>5.326360572148062</v>
+      </c>
       <c r="O13">
-        <v>36.03477017946498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.23872154237445</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>1.875649786572601</v>
+        <v>7.371323069391805</v>
       </c>
       <c r="D14">
-        <v>2.758878730342311</v>
+        <v>6.225511776610962</v>
       </c>
       <c r="E14">
-        <v>41.84493701685415</v>
+        <v>7.10434495086946</v>
       </c>
       <c r="F14">
-        <v>44.67306407901272</v>
+        <v>20.27037359184682</v>
       </c>
       <c r="G14">
-        <v>1.928806980890016</v>
+        <v>25.56076805799264</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.531140630952874</v>
       </c>
       <c r="I14">
-        <v>33.02511186561139</v>
+        <v>2.92505860164294</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.401747347334947</v>
+      </c>
+      <c r="K14">
+        <v>16.6181950470572</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
+      <c r="M14">
+        <v>26.64548122396736</v>
+      </c>
+      <c r="N14">
+        <v>5.422640384160853</v>
+      </c>
       <c r="O14">
-        <v>35.66317918426404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>17.66418657398279</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>1.867904249133046</v>
+        <v>7.266619158810769</v>
       </c>
       <c r="D15">
-        <v>2.743646221452022</v>
+        <v>6.259178793650952</v>
       </c>
       <c r="E15">
-        <v>41.55744772836105</v>
+        <v>7.08256763050131</v>
       </c>
       <c r="F15">
-        <v>44.38917304826692</v>
+        <v>19.95252177920514</v>
       </c>
       <c r="G15">
-        <v>1.930211452152583</v>
+        <v>25.02742650838879</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.770105882845715</v>
       </c>
       <c r="I15">
-        <v>32.81445435038023</v>
+        <v>2.895998132088863</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.321285833342106</v>
+      </c>
+      <c r="K15">
+        <v>16.39253722883364</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
+      <c r="M15">
+        <v>26.52802719810044</v>
+      </c>
+      <c r="N15">
+        <v>5.455427429187217</v>
+      </c>
       <c r="O15">
-        <v>35.43489233826065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>17.47080357336925</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>1.823731488641048</v>
+        <v>7.095266311911017</v>
       </c>
       <c r="D16">
-        <v>2.657080396358119</v>
+        <v>6.157162712354986</v>
       </c>
       <c r="E16">
-        <v>39.90510733979908</v>
+        <v>7.006368212714022</v>
       </c>
       <c r="F16">
-        <v>42.74859453506419</v>
+        <v>19.81312656995833</v>
       </c>
       <c r="G16">
-        <v>1.938236957362289</v>
+        <v>24.92803363169819</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.577666564730851</v>
       </c>
       <c r="I16">
-        <v>31.59683445607262</v>
+        <v>2.749250170794221</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.391398535768689</v>
+      </c>
+      <c r="K16">
+        <v>16.40821518843806</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
+      <c r="M16">
+        <v>25.69185871498332</v>
+      </c>
+      <c r="N16">
+        <v>5.416888619842006</v>
+      </c>
       <c r="O16">
-        <v>34.11570555999118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.00249835030192</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>1.796795864687232</v>
+        <v>7.142252606182879</v>
       </c>
       <c r="D17">
-        <v>2.60451897295202</v>
+        <v>5.990118240111554</v>
       </c>
       <c r="E17">
-        <v>38.88572287650462</v>
+        <v>6.998226202138865</v>
       </c>
       <c r="F17">
-        <v>41.72920756280248</v>
+        <v>20.3352430425844</v>
       </c>
       <c r="G17">
-        <v>1.943146463650443</v>
+        <v>25.9327087591253</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.857371715507703</v>
       </c>
       <c r="I17">
-        <v>30.84001227534053</v>
+        <v>2.670067415584009</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.623595134483299</v>
+      </c>
+      <c r="K17">
+        <v>16.88409126519137</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
+      <c r="M17">
+        <v>25.10829740479974</v>
+      </c>
+      <c r="N17">
+        <v>5.320996685554586</v>
+      </c>
       <c r="O17">
-        <v>33.29603471178545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.95742214382788</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>1.781353462906211</v>
+        <v>7.413720702960785</v>
       </c>
       <c r="D18">
-        <v>2.574449245575974</v>
+        <v>5.754137861957664</v>
       </c>
       <c r="E18">
-        <v>38.29678332875979</v>
+        <v>7.198808285451276</v>
       </c>
       <c r="F18">
-        <v>41.13786450955133</v>
+        <v>21.51949217289212</v>
       </c>
       <c r="G18">
-        <v>1.94596762355689</v>
+        <v>28.06928733719161</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.625764549648941</v>
       </c>
       <c r="I18">
-        <v>30.40088460386859</v>
+        <v>2.639634032110352</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.03999970817485</v>
+      </c>
+      <c r="K18">
+        <v>17.85572427637115</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
+      <c r="M18">
+        <v>24.68837008973289</v>
+      </c>
+      <c r="N18">
+        <v>5.258005990514416</v>
+      </c>
       <c r="O18">
-        <v>32.82053801467179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.27831016674877</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>1.776132770408752</v>
+        <v>7.824048809075851</v>
       </c>
       <c r="D19">
-        <v>2.564292725646658</v>
+        <v>5.513602046796612</v>
       </c>
       <c r="E19">
-        <v>38.09688402867008</v>
+        <v>7.742349827671107</v>
       </c>
       <c r="F19">
-        <v>40.93676084684342</v>
+        <v>23.0633529553413</v>
       </c>
       <c r="G19">
-        <v>1.946922580246121</v>
+        <v>30.81942422402683</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.170521865626943</v>
       </c>
       <c r="I19">
-        <v>30.25152876477408</v>
+        <v>2.663854864313135</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.56083389950983</v>
+      </c>
+      <c r="K19">
+        <v>19.10800839560799</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
+      <c r="M19">
+        <v>24.44036791755346</v>
+      </c>
+      <c r="N19">
+        <v>5.363136507905687</v>
+      </c>
       <c r="O19">
-        <v>32.65882855888053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.85384873871089</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>1.799657811011919</v>
+        <v>8.642076024329258</v>
       </c>
       <c r="D20">
-        <v>2.610096639414356</v>
+        <v>5.24610646625209</v>
       </c>
       <c r="E20">
-        <v>38.9944979750524</v>
+        <v>9.065475390704547</v>
       </c>
       <c r="F20">
-        <v>41.83823686096148</v>
+        <v>25.66376125323503</v>
       </c>
       <c r="G20">
-        <v>1.942624165897263</v>
+        <v>35.36166556571347</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.630170035296717</v>
       </c>
       <c r="I20">
-        <v>30.92096864997879</v>
+        <v>2.822794281585601</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.39560039201472</v>
+      </c>
+      <c r="K20">
+        <v>21.19324055696287</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
+      <c r="M20">
+        <v>24.69299397300272</v>
+      </c>
+      <c r="N20">
+        <v>5.878120579433324</v>
+      </c>
       <c r="O20">
-        <v>33.38370376114062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.10476839194111</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>1.879368202807165</v>
+        <v>9.141081145963481</v>
       </c>
       <c r="D21">
-        <v>2.766197535147497</v>
+        <v>5.305338592321277</v>
       </c>
       <c r="E21">
-        <v>41.98273105990079</v>
+        <v>9.506832253898775</v>
       </c>
       <c r="F21">
-        <v>44.80896556426028</v>
+        <v>26.70191731390347</v>
       </c>
       <c r="G21">
-        <v>1.928132994100159</v>
+        <v>36.93870746205006</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.828190979521471</v>
       </c>
       <c r="I21">
-        <v>33.12595160289649</v>
+        <v>3.11200385552162</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.57929119883838</v>
+      </c>
+      <c r="K21">
+        <v>21.86147006877605</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
+      <c r="M21">
+        <v>26.15624714163824</v>
+      </c>
+      <c r="N21">
+        <v>6.026973057240198</v>
+      </c>
       <c r="O21">
-        <v>35.77246398943162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.2218634279919</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>1.932145100571903</v>
+        <v>9.449179915725409</v>
       </c>
       <c r="D22">
-        <v>2.870533811328222</v>
+        <v>5.349413986272576</v>
       </c>
       <c r="E22">
-        <v>43.92415313644508</v>
+        <v>9.729813496701293</v>
       </c>
       <c r="F22">
-        <v>46.71177473722911</v>
+        <v>27.32210720027176</v>
       </c>
       <c r="G22">
-        <v>1.918582969397073</v>
+        <v>37.86430711157644</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.029562483522302</v>
       </c>
       <c r="I22">
-        <v>34.53759581181278</v>
+        <v>3.291791561522039</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.68385354768292</v>
+      </c>
+      <c r="K22">
+        <v>22.25311889896619</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
+      <c r="M22">
+        <v>27.08101280875357</v>
+      </c>
+      <c r="N22">
+        <v>6.09088310803258</v>
+      </c>
       <c r="O22">
-        <v>37.3027494031148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.88603794854584</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>1.903900774151962</v>
+        <v>9.310888732238165</v>
       </c>
       <c r="D23">
-        <v>2.814587345811049</v>
+        <v>5.320163582477494</v>
       </c>
       <c r="E23">
-        <v>42.88839239131945</v>
+        <v>9.619148303486886</v>
       </c>
       <c r="F23">
-        <v>45.69943000408983</v>
+        <v>27.04251230688407</v>
       </c>
       <c r="G23">
-        <v>1.923690253395265</v>
+        <v>37.461677803067</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.924011348650057</v>
       </c>
       <c r="I23">
-        <v>33.78661943694404</v>
+        <v>3.193110757315854</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.64609487818969</v>
+      </c>
+      <c r="K23">
+        <v>22.09104941930978</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
+      <c r="M23">
+        <v>26.59085854435501</v>
+      </c>
+      <c r="N23">
+        <v>6.056208110412348</v>
+      </c>
       <c r="O23">
-        <v>36.48855921768402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.53819014228084</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>1.798363792629027</v>
+        <v>8.72677063098433</v>
       </c>
       <c r="D24">
-        <v>2.607574522604306</v>
+        <v>5.216722277760423</v>
       </c>
       <c r="E24">
-        <v>38.94532984956295</v>
+        <v>9.176320274855911</v>
       </c>
       <c r="F24">
-        <v>41.7889612349011</v>
+        <v>25.9050922669098</v>
       </c>
       <c r="G24">
-        <v>1.94286030043738</v>
+        <v>35.79536040084305</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.607340893312197</v>
       </c>
       <c r="I24">
-        <v>30.88438084377629</v>
+        <v>2.818115783064362</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.48329845073139</v>
+      </c>
+      <c r="K24">
+        <v>21.40396774977079</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
+      <c r="M24">
+        <v>24.65322826077143</v>
+      </c>
+      <c r="N24">
+        <v>5.924345958019728</v>
+      </c>
       <c r="O24">
-        <v>33.3440818963511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.16121620895967</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>1.686407551423986</v>
+        <v>8.053503263022325</v>
       </c>
       <c r="D25">
-        <v>2.39019985153753</v>
+        <v>5.100473943809031</v>
       </c>
       <c r="E25">
-        <v>34.58795469758228</v>
+        <v>8.675096944869722</v>
       </c>
       <c r="F25">
-        <v>37.37686830819429</v>
+        <v>24.69159957782974</v>
       </c>
       <c r="G25">
-        <v>1.963457435156415</v>
+        <v>34.01558491249732</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.075486426966231</v>
       </c>
       <c r="I25">
-        <v>27.60592657428316</v>
+        <v>2.584332589739461</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.32869759893076</v>
+      </c>
+      <c r="K25">
+        <v>20.67073464073159</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
+      <c r="M25">
+        <v>22.38638874721964</v>
+      </c>
+      <c r="N25">
+        <v>5.778570866982502</v>
+      </c>
       <c r="O25">
-        <v>29.79575202850838</v>
+        <v>17.56376244632949</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.592728192394723</v>
+        <v>6.238150195673385</v>
       </c>
       <c r="D2">
-        <v>4.997284463950464</v>
+        <v>5.123404325199941</v>
       </c>
       <c r="E2">
-        <v>8.307571940589705</v>
+        <v>8.013527450936643</v>
       </c>
       <c r="F2">
-        <v>23.95284827450216</v>
+        <v>21.91331539337546</v>
       </c>
       <c r="G2">
-        <v>32.97446904099708</v>
+        <v>28.95278194443304</v>
       </c>
       <c r="H2">
-        <v>2.430686997815573</v>
+        <v>2.329224432100379</v>
       </c>
       <c r="I2">
-        <v>2.887682430328625</v>
+        <v>2.753148717486984</v>
       </c>
       <c r="J2">
-        <v>11.27831320018908</v>
+        <v>10.83671116959209</v>
       </c>
       <c r="K2">
-        <v>20.26244302144609</v>
+        <v>18.32960003921764</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.11532283819858</v>
       </c>
       <c r="M2">
-        <v>20.56179923107858</v>
+        <v>12.15379718559411</v>
       </c>
       <c r="N2">
-        <v>5.666684647835305</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.30426215862698</v>
+        <v>20.63548782597363</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>5.85297472004365</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.11132734585853</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.217464351441414</v>
+        <v>5.938859902022112</v>
       </c>
       <c r="D3">
-        <v>4.933006563239837</v>
+        <v>5.009955270577691</v>
       </c>
       <c r="E3">
-        <v>8.034318711991814</v>
+        <v>7.78358559478952</v>
       </c>
       <c r="F3">
-        <v>23.38544523327568</v>
+        <v>21.5506774407403</v>
       </c>
       <c r="G3">
-        <v>32.14469220118439</v>
+        <v>28.53784349883987</v>
       </c>
       <c r="H3">
-        <v>2.683875468656792</v>
+        <v>2.554790114558871</v>
       </c>
       <c r="I3">
-        <v>3.121947416100436</v>
+        <v>2.952300337975437</v>
       </c>
       <c r="J3">
-        <v>11.22702065273396</v>
+        <v>10.80748980849202</v>
       </c>
       <c r="K3">
-        <v>19.92158250824923</v>
+        <v>18.16336941136942</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.11467638775135</v>
       </c>
       <c r="M3">
-        <v>19.22848351970533</v>
+        <v>11.89939065473214</v>
       </c>
       <c r="N3">
-        <v>5.589640338958787</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.38583953792225</v>
+        <v>19.31018881615623</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.791467479236408</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.20433211688962</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.974165837877193</v>
+        <v>5.744825198551844</v>
       </c>
       <c r="D4">
-        <v>4.892642532356724</v>
+        <v>4.939162050809244</v>
       </c>
       <c r="E4">
-        <v>7.860225138107594</v>
+        <v>7.637052422021048</v>
       </c>
       <c r="F4">
-        <v>23.04068257953402</v>
+        <v>21.33299306106419</v>
       </c>
       <c r="G4">
-        <v>31.63879860237485</v>
+        <v>28.2955795239589</v>
       </c>
       <c r="H4">
-        <v>2.844520740854788</v>
+        <v>2.698037371453563</v>
       </c>
       <c r="I4">
-        <v>3.271625018941102</v>
+        <v>3.080033169141541</v>
       </c>
       <c r="J4">
-        <v>11.19914430128819</v>
+        <v>10.79042913533157</v>
       </c>
       <c r="K4">
-        <v>19.71295972343975</v>
+        <v>18.06198770459268</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.10956317050932</v>
       </c>
       <c r="M4">
-        <v>18.36157563703124</v>
+        <v>11.76178861890307</v>
       </c>
       <c r="N4">
-        <v>5.541333880452008</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.79357304388859</v>
+        <v>18.44849488205854</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.753265367909049</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.6186575909703</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.863440406431365</v>
+        <v>5.656027307720798</v>
       </c>
       <c r="D5">
-        <v>4.877335096741684</v>
+        <v>4.911700355160566</v>
       </c>
       <c r="E5">
-        <v>7.785297439744834</v>
+        <v>7.573903396003888</v>
       </c>
       <c r="F5">
-        <v>22.88590585679431</v>
+        <v>21.2319080409592</v>
       </c>
       <c r="G5">
-        <v>31.40630359233472</v>
+        <v>28.17562510609173</v>
       </c>
       <c r="H5">
-        <v>2.911825951486898</v>
+        <v>2.758082873218109</v>
       </c>
       <c r="I5">
-        <v>3.337068195026947</v>
+        <v>3.136878824617793</v>
       </c>
       <c r="J5">
-        <v>11.18369062779831</v>
+        <v>10.77932933249985</v>
       </c>
       <c r="K5">
-        <v>19.61480362507708</v>
+        <v>18.00926939472926</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.09661058667174</v>
       </c>
       <c r="M5">
-        <v>17.99628466842386</v>
+        <v>11.70272464502281</v>
       </c>
       <c r="N5">
-        <v>5.521516763688508</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.54382997760124</v>
+        <v>18.08541533017813</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>5.737710028553479</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.37159333279089</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.834649119732012</v>
+        <v>5.632440940267969</v>
       </c>
       <c r="D6">
-        <v>4.876459302514053</v>
+        <v>4.909158286192013</v>
       </c>
       <c r="E6">
-        <v>7.769801164287976</v>
+        <v>7.560759955693591</v>
       </c>
       <c r="F6">
-        <v>22.841542629039</v>
+        <v>21.19852513539173</v>
       </c>
       <c r="G6">
-        <v>31.33424864370217</v>
+        <v>28.12622099121257</v>
       </c>
       <c r="H6">
-        <v>2.923706675777569</v>
+        <v>2.768684097350664</v>
       </c>
       <c r="I6">
-        <v>3.351818365842795</v>
+        <v>3.150791295212604</v>
       </c>
       <c r="J6">
-        <v>11.17509767877634</v>
+        <v>10.77217392083739</v>
       </c>
       <c r="K6">
-        <v>19.58218925412195</v>
+        <v>17.98639106559722</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.08258353608086</v>
       </c>
       <c r="M6">
-        <v>17.93506503213678</v>
+        <v>11.68361140178335</v>
       </c>
       <c r="N6">
-        <v>5.518361985171881</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.50024382952609</v>
+        <v>18.02456105625193</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>5.735272664323702</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.32857950532908</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.945236605471313</v>
+        <v>5.726576516515615</v>
       </c>
       <c r="D7">
-        <v>4.897049697011926</v>
+        <v>4.947772937326473</v>
       </c>
       <c r="E7">
-        <v>7.851232017794678</v>
+        <v>7.630188962007395</v>
       </c>
       <c r="F7">
-        <v>22.98783340497959</v>
+        <v>21.25910028018955</v>
       </c>
       <c r="G7">
-        <v>31.54483870827811</v>
+        <v>28.27022727383103</v>
       </c>
       <c r="H7">
-        <v>2.847103247069793</v>
+        <v>2.700955491353063</v>
       </c>
       <c r="I7">
-        <v>3.282608841887663</v>
+        <v>3.093153817549495</v>
       </c>
       <c r="J7">
-        <v>11.18237066116214</v>
+        <v>10.73035504689128</v>
       </c>
       <c r="K7">
-        <v>19.66726702241583</v>
+        <v>18.00557781773705</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.06362946008494</v>
       </c>
       <c r="M7">
-        <v>18.35715198722458</v>
+        <v>11.72223051639547</v>
       </c>
       <c r="N7">
-        <v>5.541489967774499</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.78567658364418</v>
+        <v>18.44337476687667</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5.752636778431054</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.61247863482923</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.431717008777121</v>
+        <v>6.127628185908195</v>
       </c>
       <c r="D8">
-        <v>4.981538747925108</v>
+        <v>5.103492320588823</v>
       </c>
       <c r="E8">
-        <v>8.204552431209761</v>
+        <v>7.929694115887126</v>
       </c>
       <c r="F8">
-        <v>23.69130591037301</v>
+        <v>21.64088628261612</v>
       </c>
       <c r="G8">
-        <v>32.57116397221926</v>
+        <v>28.89009453826921</v>
       </c>
       <c r="H8">
-        <v>2.519048661857139</v>
+        <v>2.409797745797456</v>
       </c>
       <c r="I8">
-        <v>2.980455582216739</v>
+        <v>2.838028254801887</v>
       </c>
       <c r="J8">
-        <v>11.23816536235151</v>
+        <v>10.65933393912946</v>
       </c>
       <c r="K8">
-        <v>20.08729618925828</v>
+        <v>18.16631802493367</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.03297749871933</v>
       </c>
       <c r="M8">
-        <v>20.11260067374509</v>
+        <v>11.98423720232737</v>
       </c>
       <c r="N8">
-        <v>5.640928977878739</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.98785828233421</v>
+        <v>20.18685335941869</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5.829800237791881</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.80341662167885</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.328309387417706</v>
+        <v>6.848631723421904</v>
       </c>
       <c r="D9">
-        <v>5.131554948819547</v>
+        <v>5.376309578982664</v>
       </c>
       <c r="E9">
-        <v>8.859848262816126</v>
+        <v>8.482147065121866</v>
       </c>
       <c r="F9">
-        <v>25.18183050237439</v>
+        <v>22.60729220957215</v>
       </c>
       <c r="G9">
-        <v>34.76123831833682</v>
+        <v>30.13776168357995</v>
       </c>
       <c r="H9">
-        <v>1.912856490179641</v>
+        <v>1.870840406200331</v>
       </c>
       <c r="I9">
-        <v>2.539056929675288</v>
+        <v>2.603227907517222</v>
       </c>
       <c r="J9">
-        <v>11.40691407369086</v>
+        <v>10.71591025819049</v>
       </c>
       <c r="K9">
-        <v>20.99143899279686</v>
+        <v>18.61765056754774</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.03941084323353</v>
       </c>
       <c r="M9">
-        <v>23.17323570204588</v>
+        <v>12.73209259526657</v>
       </c>
       <c r="N9">
-        <v>5.82725855183405</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.12379708524947</v>
+        <v>23.22812390054676</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>5.979906456891404</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.9088404313909</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.847503998720383</v>
+        <v>7.308327658530144</v>
       </c>
       <c r="D10">
-        <v>5.264132022494166</v>
+        <v>5.619935678935637</v>
       </c>
       <c r="E10">
-        <v>9.173657207844196</v>
+        <v>8.742915514391244</v>
       </c>
       <c r="F10">
-        <v>26.04151928161967</v>
+        <v>22.99717383448532</v>
       </c>
       <c r="G10">
-        <v>35.941720169288</v>
+        <v>31.06996237296672</v>
       </c>
       <c r="H10">
-        <v>1.621752486110246</v>
+        <v>1.614929334069309</v>
       </c>
       <c r="I10">
-        <v>2.910847024241562</v>
+        <v>2.917523991583328</v>
       </c>
       <c r="J10">
-        <v>11.46518222893332</v>
+        <v>10.44975215916564</v>
       </c>
       <c r="K10">
-        <v>21.44907261884169</v>
+        <v>18.69905381255741</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.84030745891187</v>
       </c>
       <c r="M10">
-        <v>25.21075314733701</v>
+        <v>13.14929074485479</v>
       </c>
       <c r="N10">
-        <v>5.897879456434095</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>19.46284687265959</v>
+        <v>25.24842950022168</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.018853174260459</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.23266499555748</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.489599637639373</v>
+        <v>7.178669241260795</v>
       </c>
       <c r="D11">
-        <v>5.571759270755142</v>
+        <v>6.029463404933658</v>
       </c>
       <c r="E11">
-        <v>8.282012008254078</v>
+        <v>7.939879545739714</v>
       </c>
       <c r="F11">
-        <v>24.46147104649157</v>
+        <v>21.31204934464816</v>
       </c>
       <c r="G11">
-        <v>32.97804963966567</v>
+        <v>29.11103435786024</v>
       </c>
       <c r="H11">
-        <v>2.654694654632291</v>
+        <v>2.641691335756966</v>
       </c>
       <c r="I11">
-        <v>3.019647939336087</v>
+        <v>3.010968333801402</v>
       </c>
       <c r="J11">
-        <v>10.80160193231746</v>
+        <v>9.456833617445929</v>
       </c>
       <c r="K11">
-        <v>20.00186212195643</v>
+        <v>17.29199133373612</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.73518562847103</v>
       </c>
       <c r="M11">
-        <v>26.2461799388605</v>
+        <v>12.17672570873318</v>
       </c>
       <c r="N11">
-        <v>5.50577792787957</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>19.30395996483256</v>
+        <v>26.27092076162212</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>5.57478110915572</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.10184174132669</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.129675110818022</v>
+        <v>6.995121921651785</v>
       </c>
       <c r="D12">
-        <v>5.828682720994858</v>
+        <v>6.325865028699207</v>
       </c>
       <c r="E12">
-        <v>7.666547321000665</v>
+        <v>7.40887094474071</v>
       </c>
       <c r="F12">
-        <v>22.99475646856738</v>
+        <v>19.94130072999463</v>
       </c>
       <c r="G12">
-        <v>30.3191547393572</v>
+        <v>27.14102818899382</v>
       </c>
       <c r="H12">
-        <v>4.049532876401019</v>
+        <v>4.05835319075873</v>
       </c>
       <c r="I12">
-        <v>3.03696142730936</v>
+        <v>3.025936461425222</v>
       </c>
       <c r="J12">
-        <v>10.25582300730041</v>
+        <v>8.900246795988535</v>
       </c>
       <c r="K12">
-        <v>18.74791450736853</v>
+        <v>16.21215110653833</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.95540406528047</v>
       </c>
       <c r="M12">
-        <v>26.70957841408367</v>
+        <v>11.34613320236677</v>
       </c>
       <c r="N12">
-        <v>5.331456884148871</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.89060469813191</v>
+        <v>26.72830951200223</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.365946741392098</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.71200632864325</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.704216051975235</v>
+        <v>6.717320205685643</v>
       </c>
       <c r="D13">
-        <v>6.065125338196139</v>
+        <v>6.544467210364327</v>
       </c>
       <c r="E13">
-        <v>7.251780784020204</v>
+        <v>7.081630552524404</v>
       </c>
       <c r="F13">
-        <v>21.42938374540373</v>
+        <v>18.70354196408947</v>
       </c>
       <c r="G13">
-        <v>27.56276588088949</v>
+        <v>24.75792778691868</v>
       </c>
       <c r="H13">
-        <v>5.505801435140076</v>
+        <v>5.509909668648745</v>
       </c>
       <c r="I13">
-        <v>2.987977199506525</v>
+        <v>2.987228880771378</v>
       </c>
       <c r="J13">
-        <v>9.743679387700768</v>
+        <v>8.647169886184052</v>
       </c>
       <c r="K13">
-        <v>17.4965576781807</v>
+        <v>15.29200244992414</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.34311639433206</v>
       </c>
       <c r="M13">
-        <v>26.77644442500502</v>
+        <v>10.55885607794924</v>
       </c>
       <c r="N13">
-        <v>5.326360572148062</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.23872154237445</v>
+        <v>26.79502120920641</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.340865851126618</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.08000865866353</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.371323069391805</v>
+        <v>6.478492667955855</v>
       </c>
       <c r="D14">
-        <v>6.225511776610962</v>
+        <v>6.664836915901579</v>
       </c>
       <c r="E14">
-        <v>7.10434495086946</v>
+        <v>6.99600761324779</v>
       </c>
       <c r="F14">
-        <v>20.27037359184682</v>
+        <v>17.87777170480842</v>
       </c>
       <c r="G14">
-        <v>25.56076805799264</v>
+        <v>22.8920483791308</v>
       </c>
       <c r="H14">
-        <v>6.531140630952874</v>
+        <v>6.531894276754646</v>
       </c>
       <c r="I14">
-        <v>2.92505860164294</v>
+        <v>2.937384540339356</v>
       </c>
       <c r="J14">
-        <v>9.401747347334947</v>
+        <v>8.576962316816125</v>
       </c>
       <c r="K14">
-        <v>16.6181950470572</v>
+        <v>14.71173010467662</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.97813005062895</v>
       </c>
       <c r="M14">
-        <v>26.64548122396736</v>
+        <v>10.02326325974215</v>
       </c>
       <c r="N14">
-        <v>5.422640384160853</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.66418657398279</v>
+        <v>26.66636760269786</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.430257275653489</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>17.51796625006433</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.266619158810769</v>
+        <v>6.394669740222104</v>
       </c>
       <c r="D15">
-        <v>6.259178793650952</v>
+        <v>6.678174633460052</v>
       </c>
       <c r="E15">
-        <v>7.08256763050131</v>
+        <v>6.990390942326766</v>
       </c>
       <c r="F15">
-        <v>19.95252177920514</v>
+        <v>17.68599254300322</v>
       </c>
       <c r="G15">
-        <v>25.02742650838879</v>
+        <v>22.34401425290667</v>
       </c>
       <c r="H15">
-        <v>6.770105882845715</v>
+        <v>6.769557525660876</v>
       </c>
       <c r="I15">
-        <v>2.895998132088863</v>
+        <v>2.914836405720426</v>
       </c>
       <c r="J15">
-        <v>9.321285833342106</v>
+        <v>8.600142629418016</v>
       </c>
       <c r="K15">
-        <v>16.39253722883364</v>
+        <v>14.58710410268268</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.90709923911647</v>
       </c>
       <c r="M15">
-        <v>26.52802719810044</v>
+        <v>9.892557866659983</v>
       </c>
       <c r="N15">
-        <v>5.455427429187217</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.47080357336925</v>
+        <v>26.55068063590265</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.463789710957081</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>17.32707593310619</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.095266311911017</v>
+        <v>6.193740284618792</v>
       </c>
       <c r="D16">
-        <v>6.157162712354986</v>
+        <v>6.49150808128369</v>
       </c>
       <c r="E16">
-        <v>7.006368212714022</v>
+        <v>6.926198393521821</v>
       </c>
       <c r="F16">
-        <v>19.81312656995833</v>
+        <v>17.90407225575033</v>
       </c>
       <c r="G16">
-        <v>24.92803363169819</v>
+        <v>21.85058592167482</v>
       </c>
       <c r="H16">
-        <v>6.577666564730851</v>
+        <v>6.570655957833547</v>
       </c>
       <c r="I16">
-        <v>2.749250170794221</v>
+        <v>2.795247724622437</v>
       </c>
       <c r="J16">
-        <v>9.391398535768689</v>
+        <v>8.9975150650474</v>
       </c>
       <c r="K16">
-        <v>16.40821518843806</v>
+        <v>14.82243268400253</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.12876869883926</v>
       </c>
       <c r="M16">
-        <v>25.69185871498332</v>
+        <v>9.964450033607321</v>
       </c>
       <c r="N16">
-        <v>5.416888619842006</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.00249835030192</v>
+        <v>25.72581418867243</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.445345517150847</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.85327004792478</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.142252606182879</v>
+        <v>6.170156231582139</v>
       </c>
       <c r="D17">
-        <v>5.990118240111554</v>
+        <v>6.29060580358142</v>
       </c>
       <c r="E17">
-        <v>6.998226202138865</v>
+        <v>6.891595484600149</v>
       </c>
       <c r="F17">
-        <v>20.3352430425844</v>
+        <v>18.48689540594914</v>
       </c>
       <c r="G17">
-        <v>25.9327087591253</v>
+        <v>22.54813822085454</v>
       </c>
       <c r="H17">
-        <v>5.857371715507703</v>
+        <v>5.84547510327967</v>
       </c>
       <c r="I17">
-        <v>2.670067415584009</v>
+        <v>2.729531754010473</v>
       </c>
       <c r="J17">
-        <v>9.623595134483299</v>
+        <v>9.328700088884359</v>
       </c>
       <c r="K17">
-        <v>16.88409126519137</v>
+        <v>15.29420675269465</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.49363396853219</v>
       </c>
       <c r="M17">
-        <v>25.10829740479974</v>
+        <v>10.28416083786679</v>
       </c>
       <c r="N17">
-        <v>5.320996685554586</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.95742214382788</v>
+        <v>25.14913668270529</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.369671351913075</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.79864910849468</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.413720702960785</v>
+        <v>6.312289264747929</v>
       </c>
       <c r="D18">
-        <v>5.754137861957664</v>
+        <v>6.046406809170953</v>
       </c>
       <c r="E18">
-        <v>7.198808285451276</v>
+        <v>7.024354638865324</v>
       </c>
       <c r="F18">
-        <v>21.51949217289212</v>
+        <v>19.53310383300234</v>
       </c>
       <c r="G18">
-        <v>28.06928733719161</v>
+        <v>24.27807710400166</v>
       </c>
       <c r="H18">
-        <v>4.625764549648941</v>
+        <v>4.609562433451766</v>
       </c>
       <c r="I18">
-        <v>2.639634032110352</v>
+        <v>2.701224344984723</v>
       </c>
       <c r="J18">
-        <v>10.03999970817485</v>
+        <v>9.715144046428852</v>
       </c>
       <c r="K18">
-        <v>17.85572427637115</v>
+        <v>16.09665174972469</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.08383284211849</v>
       </c>
       <c r="M18">
-        <v>24.68837008973289</v>
+        <v>10.89992479512756</v>
       </c>
       <c r="N18">
-        <v>5.258005990514416</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.27831016674877</v>
+        <v>24.73387041908819</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.331580799396925</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.10336875175829</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.824048809075851</v>
+        <v>6.558578942250366</v>
       </c>
       <c r="D19">
-        <v>5.513602046796612</v>
+        <v>5.807566251016336</v>
       </c>
       <c r="E19">
-        <v>7.742349827671107</v>
+        <v>7.473277363966603</v>
       </c>
       <c r="F19">
-        <v>23.0633529553413</v>
+        <v>20.82159440412941</v>
       </c>
       <c r="G19">
-        <v>30.81942422402683</v>
+        <v>26.542009282626</v>
       </c>
       <c r="H19">
-        <v>3.170521865626943</v>
+        <v>3.150525630951392</v>
       </c>
       <c r="I19">
-        <v>2.663854864313135</v>
+        <v>2.720558958421896</v>
       </c>
       <c r="J19">
-        <v>10.56083389950983</v>
+        <v>10.13269242183553</v>
       </c>
       <c r="K19">
-        <v>19.10800839560799</v>
+        <v>17.08159701493323</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.79735791407188</v>
       </c>
       <c r="M19">
-        <v>24.44036791755346</v>
+        <v>11.68152092784214</v>
       </c>
       <c r="N19">
-        <v>5.363136507905687</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.85384873871089</v>
+        <v>24.48837700732952</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.46491628256389</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.65850400355145</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.642076024329258</v>
+        <v>7.115269870497865</v>
       </c>
       <c r="D20">
-        <v>5.24610646625209</v>
+        <v>5.563137233205459</v>
       </c>
       <c r="E20">
-        <v>9.065475390704547</v>
+        <v>8.648544359688378</v>
       </c>
       <c r="F20">
-        <v>25.66376125323503</v>
+        <v>22.84608683052002</v>
       </c>
       <c r="G20">
-        <v>35.36166556571347</v>
+        <v>30.38643982995122</v>
       </c>
       <c r="H20">
-        <v>1.630170035296717</v>
+        <v>1.622128037436611</v>
       </c>
       <c r="I20">
-        <v>2.822794281585601</v>
+        <v>2.850443543776554</v>
       </c>
       <c r="J20">
-        <v>11.39560039201472</v>
+        <v>10.62804772215129</v>
       </c>
       <c r="K20">
-        <v>21.19324055696287</v>
+        <v>18.6177929743134</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.84963992919317</v>
       </c>
       <c r="M20">
-        <v>24.69299397300272</v>
+        <v>12.9890429399642</v>
       </c>
       <c r="N20">
-        <v>5.878120579433324</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>19.10476839194111</v>
+        <v>24.73717070713687</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.009863057885272</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.87635134751273</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.141081145963481</v>
+        <v>7.623540676816242</v>
       </c>
       <c r="D21">
-        <v>5.305338592321277</v>
+        <v>5.770105317446308</v>
       </c>
       <c r="E21">
-        <v>9.506832253898775</v>
+        <v>9.050456572400476</v>
       </c>
       <c r="F21">
-        <v>26.70191731390347</v>
+        <v>23.01078439907198</v>
       </c>
       <c r="G21">
-        <v>36.93870746205006</v>
+        <v>32.69986347193397</v>
       </c>
       <c r="H21">
-        <v>1.828190979521471</v>
+        <v>1.789521864241292</v>
       </c>
       <c r="I21">
-        <v>3.11200385552162</v>
+        <v>3.08421350928983</v>
       </c>
       <c r="J21">
-        <v>11.57929119883838</v>
+        <v>9.76512131465733</v>
       </c>
       <c r="K21">
-        <v>21.86147006877605</v>
+        <v>18.63670684219273</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.66574185436318</v>
       </c>
       <c r="M21">
-        <v>26.15624714163824</v>
+        <v>13.28722242368806</v>
       </c>
       <c r="N21">
-        <v>6.026973057240198</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>20.2218634279919</v>
+        <v>26.17766541502641</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.127294281269722</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.99422780949065</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.449179915725409</v>
+        <v>7.953755723884758</v>
       </c>
       <c r="D22">
-        <v>5.349413986272576</v>
+        <v>5.91668718148052</v>
       </c>
       <c r="E22">
-        <v>9.729813496701293</v>
+        <v>9.256035225641455</v>
       </c>
       <c r="F22">
-        <v>27.32210720027176</v>
+        <v>23.05052997793451</v>
       </c>
       <c r="G22">
-        <v>37.86430711157644</v>
+        <v>34.22413106127146</v>
       </c>
       <c r="H22">
-        <v>2.029562483522302</v>
+        <v>1.961361263135638</v>
       </c>
       <c r="I22">
-        <v>3.291791561522039</v>
+        <v>3.227412314466071</v>
       </c>
       <c r="J22">
-        <v>11.68385354768292</v>
+        <v>9.184033716474882</v>
       </c>
       <c r="K22">
-        <v>22.25311889896619</v>
+        <v>18.59839735497176</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.50927931027772</v>
       </c>
       <c r="M22">
-        <v>27.08101280875357</v>
+        <v>13.44828837078659</v>
       </c>
       <c r="N22">
-        <v>6.09088310803258</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>20.88603794854584</v>
+        <v>27.08733465592615</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>6.168793007372511</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.66023486336348</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.310888732238165</v>
+        <v>7.785822792930949</v>
       </c>
       <c r="D23">
-        <v>5.320163582477494</v>
+        <v>5.821738909965775</v>
       </c>
       <c r="E23">
-        <v>9.619148303486886</v>
+        <v>9.15072128705963</v>
       </c>
       <c r="F23">
-        <v>27.04251230688407</v>
+        <v>23.13765630073664</v>
       </c>
       <c r="G23">
-        <v>37.461677803067</v>
+        <v>33.34950274032756</v>
       </c>
       <c r="H23">
-        <v>1.924011348650057</v>
+        <v>1.872266207177339</v>
       </c>
       <c r="I23">
-        <v>3.193110757315854</v>
+        <v>3.147619262922226</v>
       </c>
       <c r="J23">
-        <v>11.64609487818969</v>
+        <v>9.598193874225153</v>
       </c>
       <c r="K23">
-        <v>22.09104941930978</v>
+        <v>18.70006935311222</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.64956053164836</v>
       </c>
       <c r="M23">
-        <v>26.59085854435501</v>
+        <v>13.4274404003834</v>
       </c>
       <c r="N23">
-        <v>6.056208110412348</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>20.53819014228084</v>
+        <v>26.60638961055348</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>6.147728131217658</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.30866345615168</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.72677063098433</v>
+        <v>7.173718203910457</v>
       </c>
       <c r="D24">
-        <v>5.216722277760423</v>
+        <v>5.528673323327257</v>
       </c>
       <c r="E24">
-        <v>9.176320274855911</v>
+        <v>8.749207354161598</v>
       </c>
       <c r="F24">
-        <v>25.9050922669098</v>
+        <v>23.05746311497694</v>
       </c>
       <c r="G24">
-        <v>35.79536040084305</v>
+        <v>30.75070051013515</v>
       </c>
       <c r="H24">
-        <v>1.607340893312197</v>
+        <v>1.599986626624111</v>
       </c>
       <c r="I24">
-        <v>2.818115783064362</v>
+        <v>2.842772420913912</v>
       </c>
       <c r="J24">
-        <v>11.48329845073139</v>
+        <v>10.70583610753097</v>
       </c>
       <c r="K24">
-        <v>21.40396774977079</v>
+        <v>18.79396172421926</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.98019854401835</v>
       </c>
       <c r="M24">
-        <v>24.65322826077143</v>
+        <v>13.12475462796906</v>
       </c>
       <c r="N24">
-        <v>5.924345958019728</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>19.16121620895967</v>
+        <v>24.69764280166848</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.059107045350101</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.93004311913903</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.053503263022325</v>
+        <v>6.619223088509722</v>
       </c>
       <c r="D25">
-        <v>5.100473943809031</v>
+        <v>5.309146811015998</v>
       </c>
       <c r="E25">
-        <v>8.675096944869722</v>
+        <v>8.324743575287382</v>
       </c>
       <c r="F25">
-        <v>24.69159957782974</v>
+        <v>22.3021571093032</v>
       </c>
       <c r="G25">
-        <v>34.01558491249732</v>
+        <v>29.57430976619249</v>
       </c>
       <c r="H25">
-        <v>2.075486426966231</v>
+        <v>2.014502618606817</v>
       </c>
       <c r="I25">
-        <v>2.584332589739461</v>
+        <v>2.506000456279553</v>
       </c>
       <c r="J25">
-        <v>11.32869759893076</v>
+        <v>10.737774767013</v>
       </c>
       <c r="K25">
-        <v>20.67073464073159</v>
+        <v>18.45268361812224</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.00985459043042</v>
       </c>
       <c r="M25">
-        <v>22.38638874721964</v>
+        <v>12.4835710090121</v>
       </c>
       <c r="N25">
-        <v>5.778570866982502</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.56376244632949</v>
+        <v>22.44730525920293</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>5.941711307193214</v>
       </c>
       <c r="Q25">
+        <v>17.35640842636229</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
